--- a/wk22_pH.xlsx
+++ b/wk22_pH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwdec\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwdec\Documents\pH-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B5CEC4-1C10-421F-B0A6-AD1A642CAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450778C-B767-4487-B84C-F7D0E9B9AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
   <si>
     <t>Sample identification number</t>
   </si>
@@ -145,9 +145,6 @@
     <t>sample_id</t>
   </si>
   <si>
-    <t>surf</t>
-  </si>
-  <si>
     <t>JB22</t>
   </si>
   <si>
@@ -178,12 +175,6 @@
     <t>CMO-B-9</t>
   </si>
   <si>
-    <t>CMO-B</t>
-  </si>
-  <si>
-    <t>Chl a max</t>
-  </si>
-  <si>
     <t>CMO-A-1</t>
   </si>
   <si>
@@ -206,12 +197,6 @@
   </si>
   <si>
     <t>CMO-A-8</t>
-  </si>
-  <si>
-    <t>stn_start_time_utc</t>
-  </si>
-  <si>
-    <t>CMO-A</t>
   </si>
   <si>
     <t>Cruise name</t>
@@ -262,21 +247,6 @@
     <t>WK22-10</t>
   </si>
   <si>
-    <t>FT-01</t>
-  </si>
-  <si>
-    <t>FT-02</t>
-  </si>
-  <si>
-    <t>FT-03</t>
-  </si>
-  <si>
-    <t>FT-04</t>
-  </si>
-  <si>
-    <t>FT-05</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -310,27 +280,6 @@
     <t>WK22-20</t>
   </si>
   <si>
-    <t>Flow Through</t>
-  </si>
-  <si>
-    <t>Rosette</t>
-  </si>
-  <si>
-    <t>FT-06</t>
-  </si>
-  <si>
-    <t>FT-07</t>
-  </si>
-  <si>
-    <t>FT-08</t>
-  </si>
-  <si>
-    <t>FT-09</t>
-  </si>
-  <si>
-    <t>BI-01</t>
-  </si>
-  <si>
     <t>pH of sample</t>
   </si>
   <si>
@@ -338,33 +287,6 @@
   </si>
   <si>
     <t>start_long</t>
-  </si>
-  <si>
-    <t>CH4 bottle broke while crimping, a second bottle was filled from bottle 4 in cast 7</t>
-  </si>
-  <si>
-    <t>Zodiac</t>
-  </si>
-  <si>
-    <t>WK22-13 (ch4)</t>
-  </si>
-  <si>
-    <t>Inlcuded so metadata for for cast 7 can be included</t>
-  </si>
-  <si>
-    <t>BI-01-ZC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH bottle not filled, pH was calculated from remaining bulk water after salinity, 18O, and DOC were filled </t>
-  </si>
-  <si>
-    <t>BI-01-ZA</t>
-  </si>
-  <si>
-    <t>BI-01-ZB</t>
-  </si>
-  <si>
-    <t>n.a</t>
   </si>
   <si>
     <t>WK22-21</t>
@@ -403,16 +325,10 @@
     <t>WK22-32</t>
   </si>
   <si>
-    <t>BI-02</t>
-  </si>
-  <si>
     <t>Longitude (decimal degrees) at the start of sample collection (for underway samples) or when the rosette first hits surface (i.e. starting position of the rosette cast) copied from the rosette log (for rosette samples)</t>
   </si>
   <si>
     <t>Latitude (decimal degrees) at the start of sample collection (for underway samples) or when the rosette first hits surface (i.e. starting position of the rosette cast) copied from the rosette log (for rosette samples)</t>
-  </si>
-  <si>
-    <t>BI-02-NS</t>
   </si>
   <si>
     <t>WK22-33</t>
@@ -437,30 +353,6 @@
   </si>
   <si>
     <t>WK22-40</t>
-  </si>
-  <si>
-    <t>FT-10</t>
-  </si>
-  <si>
-    <t>FT-11</t>
-  </si>
-  <si>
-    <t>FT-12</t>
-  </si>
-  <si>
-    <t>FT-13</t>
-  </si>
-  <si>
-    <t>Stn-3</t>
-  </si>
-  <si>
-    <t>FT-14</t>
-  </si>
-  <si>
-    <t>Stn-11</t>
-  </si>
-  <si>
-    <t>FT-15</t>
   </si>
   <si>
     <t>WK22-41</t>
@@ -523,18 +415,6 @@
     <t>WK22-60</t>
   </si>
   <si>
-    <t>Stn-12</t>
-  </si>
-  <si>
-    <t>Stn-13</t>
-  </si>
-  <si>
-    <t>Stn-13-Z2 (b)</t>
-  </si>
-  <si>
-    <t>FT-16</t>
-  </si>
-  <si>
     <t>WK22-61</t>
   </si>
   <si>
@@ -586,33 +466,6 @@
     <t>WK22-77</t>
   </si>
   <si>
-    <t>Stn-6</t>
-  </si>
-  <si>
-    <t>Stn-9</t>
-  </si>
-  <si>
-    <t>Stn-6-ZA</t>
-  </si>
-  <si>
-    <t>Stn-6-ZB</t>
-  </si>
-  <si>
-    <t>Stn-6-ZC</t>
-  </si>
-  <si>
-    <t>Stn-14</t>
-  </si>
-  <si>
-    <t>Stn-9-ZA</t>
-  </si>
-  <si>
-    <t>Stn-9-ZB</t>
-  </si>
-  <si>
-    <t>Stn-9-ZC</t>
-  </si>
-  <si>
     <t>WK22-78</t>
   </si>
   <si>
@@ -632,30 +485,6 @@
   </si>
   <si>
     <t>WK22-84</t>
-  </si>
-  <si>
-    <t>FT-17</t>
-  </si>
-  <si>
-    <t>FT-18</t>
-  </si>
-  <si>
-    <t>FT-19</t>
-  </si>
-  <si>
-    <t>FT-20</t>
-  </si>
-  <si>
-    <t>FT-21</t>
-  </si>
-  <si>
-    <t>MR-1</t>
-  </si>
-  <si>
-    <t>MR-2</t>
-  </si>
-  <si>
-    <t>Station depth not recorded in log</t>
   </si>
   <si>
     <t>WK22-85</t>
@@ -697,37 +526,10 @@
     <t>WK22-97</t>
   </si>
   <si>
-    <t>Stn-13-ZD</t>
-  </si>
-  <si>
-    <t>Stn-13-ZB</t>
-  </si>
-  <si>
-    <t>Stn-13-ZA</t>
-  </si>
-  <si>
-    <t>Stn-13-ZC</t>
-  </si>
-  <si>
-    <t>Stn-17</t>
-  </si>
-  <si>
-    <t>FT-24</t>
-  </si>
-  <si>
-    <t>FT-25</t>
-  </si>
-  <si>
-    <t>CH4 sample cracked and was lost</t>
-  </si>
-  <si>
     <t>WK22-98</t>
   </si>
   <si>
     <t>WK22-99</t>
-  </si>
-  <si>
-    <t>Stn-10</t>
   </si>
   <si>
     <t>WK22-100</t>
@@ -746,9 +548,6 @@
   </si>
   <si>
     <t>WK22-105</t>
-  </si>
-  <si>
-    <t>Stn-2</t>
   </si>
   <si>
     <t>WK22-106</t>
@@ -796,21 +595,6 @@
     <t>WK22-120</t>
   </si>
   <si>
-    <t>Stn-18</t>
-  </si>
-  <si>
-    <t>CTD-171</t>
-  </si>
-  <si>
-    <t>Taken just before FT-26</t>
-  </si>
-  <si>
-    <t>FT-27</t>
-  </si>
-  <si>
-    <t>FT-28</t>
-  </si>
-  <si>
     <t>WK22-121</t>
   </si>
   <si>
@@ -841,55 +625,7 @@
     <t>WK22-130</t>
   </si>
   <si>
-    <t>WK22-131</t>
-  </si>
-  <si>
     <t>WK22-132</t>
-  </si>
-  <si>
-    <t>WK22-136</t>
-  </si>
-  <si>
-    <t>BI-03</t>
-  </si>
-  <si>
-    <t>BI-04</t>
-  </si>
-  <si>
-    <t>BI-05</t>
-  </si>
-  <si>
-    <t>FT-31</t>
-  </si>
-  <si>
-    <t>FT-32</t>
-  </si>
-  <si>
-    <t>FT-33</t>
-  </si>
-  <si>
-    <t>Kuzyk duplicate for WK22-130</t>
-  </si>
-  <si>
-    <t>Kuzyk duplicate for WK22-132</t>
-  </si>
-  <si>
-    <t>BI-05-ZA</t>
-  </si>
-  <si>
-    <t>metadata from CTD-108; exact sample time not available. Sample water transferred from 2.74 L Nalgene into 500 mL Nalgene.</t>
-  </si>
-  <si>
-    <t>metadata from CTD-106; exact sample time not available. Sample water transferred from 2.74 L Nalgene into 500 mL Nalgene.</t>
-  </si>
-  <si>
-    <t>metadata from CTD-105; exact sample time not available. Sample water transferred from 2.74 L Nalgene into 500 mL Nalgene.</t>
-  </si>
-  <si>
-    <t>metadata from CTD-107; exact sample time not available. Sample water transferred from 2.74 L Nalgene into 500 mL Nalgene.</t>
-  </si>
-  <si>
-    <t>Coordinates are incorrect; interpolated value will be added once calculated</t>
   </si>
   <si>
     <t>NA</t>
@@ -902,11 +638,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -962,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -972,18 +705,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -996,18 +717,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,51 +1130,51 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>98</v>
+      <c r="A14" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>99</v>
+      <c r="A15" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,10 +1235,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -50554,7330 +50263,1262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B130" sqref="A130:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="3"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="74.42578125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="8.5703125" style="3"/>
-    <col min="30" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" style="3"/>
+    <col min="16" max="16384" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="s">
+        <v>197</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="5">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5">
-        <v>2022</v>
+      <c r="B47" s="5">
+        <v>7.93</v>
       </c>
-      <c r="E2" s="5">
-        <v>7</v>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>92</v>
       </c>
-      <c r="F2" s="14">
-        <v>25</v>
+      <c r="B48" s="5">
+        <v>7.85</v>
       </c>
-      <c r="G2" s="4">
-        <v>0.63541666666666663</v>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>93</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
+      <c r="B49" s="5">
+        <v>7.88</v>
       </c>
-      <c r="I2" s="3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="5">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="5">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="5">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="5">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="5">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="5">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="5">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="5">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="5">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="5">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="5">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="5">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="5">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="5">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="5">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="5">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="5">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="5">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="5">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="5">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="5">
+        <v>7.91</v>
+      </c>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="5">
+        <v>8.01</v>
+      </c>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D114"/>
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" s="5">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" s="5">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="5">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" s="5">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" s="5">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="5">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="13">
-        <v>61.774999999999999</v>
+      <c r="B123" s="5">
+        <v>7.95</v>
       </c>
-      <c r="K2" s="13">
-        <v>84.320999999999998</v>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>170</v>
       </c>
-      <c r="L2" s="3">
+      <c r="B124" s="5">
+        <v>7.67</v>
+      </c>
+      <c r="D124"/>
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="5">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="5">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="5">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="5">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="3">
-        <v>1</v>
+      <c r="B133" s="5">
+        <v>7.63</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7</v>
-      </c>
-      <c r="F3" s="14">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="3">
-        <v>98</v>
-      </c>
-      <c r="J3" s="13">
-        <v>61.774999999999999</v>
-      </c>
-      <c r="K3" s="13">
-        <v>84.320999999999998</v>
-      </c>
-      <c r="L3" s="3">
-        <v>179</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E4" s="5">
-        <v>7</v>
-      </c>
-      <c r="F4" s="14">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="3">
-        <v>60</v>
-      </c>
-      <c r="J4" s="13">
-        <v>61.774999999999999</v>
-      </c>
-      <c r="K4" s="13">
-        <v>84.320999999999998</v>
-      </c>
-      <c r="L4" s="3">
-        <v>179</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>5</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E5" s="5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3">
-        <v>52</v>
-      </c>
-      <c r="J5" s="13">
-        <v>61.774999999999999</v>
-      </c>
-      <c r="K5" s="13">
-        <v>84.320999999999998</v>
-      </c>
-      <c r="L5" s="3">
-        <v>179</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>7</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7</v>
-      </c>
-      <c r="F6" s="14">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3">
-        <v>40</v>
-      </c>
-      <c r="J6" s="13">
-        <v>61.774999999999999</v>
-      </c>
-      <c r="K6" s="13">
-        <v>84.320999999999998</v>
-      </c>
-      <c r="L6" s="3">
-        <v>179</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E7" s="5">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3">
-        <v>29</v>
-      </c>
-      <c r="J7" s="13">
-        <v>61.774999999999999</v>
-      </c>
-      <c r="K7" s="13">
-        <v>84.320999999999998</v>
-      </c>
-      <c r="L7" s="3">
-        <v>179</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>11</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E8" s="5">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.6972222222222223</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13">
-        <v>61.988999999999997</v>
-      </c>
-      <c r="K8" s="13">
-        <v>84.287999999999997</v>
-      </c>
-      <c r="L8" s="5">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="3">
-        <v>2</v>
+      <c r="B134" s="5">
+        <v>7.68</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>181</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>284</v>
+      <c r="B135" s="5">
+        <v>7.76</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>182</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>44</v>
+      <c r="B136" s="5">
+        <v>7.83</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>91</v>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>183</v>
       </c>
-      <c r="D9" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="14">
-        <v>7</v>
-      </c>
-      <c r="F9" s="14">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.6972222222222223</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="13">
-        <v>61.988999999999997</v>
-      </c>
-      <c r="K9" s="13">
-        <v>84.287999999999997</v>
-      </c>
-      <c r="L9" s="5">
-        <v>180</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="14">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.6972222222222223</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="13">
-        <v>61.988999999999997</v>
-      </c>
-      <c r="K10" s="13">
-        <v>84.287999999999997</v>
-      </c>
-      <c r="L10" s="5">
-        <v>180</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>5</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="14">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="3">
-        <v>89</v>
-      </c>
-      <c r="J11" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K11" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L11" s="3">
-        <v>100</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E12" s="14">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60</v>
-      </c>
-      <c r="J12" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K12" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="14">
-        <v>7</v>
-      </c>
-      <c r="F13" s="14">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="3">
-        <v>40</v>
-      </c>
-      <c r="J13" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K13" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L13" s="3">
-        <v>100</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3</v>
-      </c>
-      <c r="N13" s="3">
-        <v>5</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E14" s="14">
-        <v>7</v>
-      </c>
-      <c r="F14" s="14">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="3">
-        <v>27</v>
-      </c>
-      <c r="J14" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K14" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>7</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E15" s="14">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20</v>
-      </c>
-      <c r="J15" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K15" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>9</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E16" s="14">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="3">
-        <v>16</v>
-      </c>
-      <c r="J16" s="13">
-        <v>59.982999999999997</v>
-      </c>
-      <c r="K16" s="13">
-        <v>92.061999999999998</v>
-      </c>
-      <c r="L16" s="3">
-        <v>100</v>
-      </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3">
-        <v>11</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E17" s="14">
-        <v>7</v>
-      </c>
-      <c r="F17" s="14">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="13">
-        <v>60.116</v>
-      </c>
-      <c r="K17" s="13">
-        <v>92.114000000000004</v>
-      </c>
-      <c r="L17" s="5">
-        <v>105</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E18" s="14">
-        <v>7</v>
-      </c>
-      <c r="F18" s="14">
-        <v>27</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="13">
-        <v>60.116</v>
-      </c>
-      <c r="K18" s="13">
-        <v>92.114000000000004</v>
-      </c>
-      <c r="L18" s="5">
-        <v>105</v>
-      </c>
-      <c r="M18" s="3">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E19" s="14">
-        <v>8</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="13">
-        <v>59.859000000000002</v>
-      </c>
-      <c r="K19" s="13">
-        <v>91.332999999999998</v>
-      </c>
-      <c r="L19" s="5">
-        <v>140</v>
-      </c>
-      <c r="M19" s="3" t="str">
-        <f>IF(C19= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N19" s="3" t="str">
-        <f>IF(C19= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O19" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E20" s="14">
-        <v>8</v>
-      </c>
-      <c r="F20" s="14">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="13">
-        <v>59.731999999999999</v>
-      </c>
-      <c r="K20" s="13">
-        <v>90.528999999999996</v>
-      </c>
-      <c r="L20" s="5">
-        <v>138</v>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f>IF(C20= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N20" s="3" t="str">
-        <f>IF(C20= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O20" s="9">
+      <c r="B137" s="5">
         <v>7.88</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E21" s="14">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="13">
-        <v>58.735529999999997</v>
-      </c>
-      <c r="K21" s="13">
-        <v>87.242317</v>
-      </c>
-      <c r="L21" s="5">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="3" t="str">
-        <f>IF(C21= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N21" s="3" t="str">
-        <f>IF(C21= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O21" s="9">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E22" s="14">
-        <v>8</v>
-      </c>
-      <c r="F22" s="14">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
-      <c r="J22" s="13">
-        <v>58.573</v>
-      </c>
-      <c r="K22" s="13">
-        <v>86.63</v>
-      </c>
-      <c r="L22" s="5">
-        <v>173</v>
-      </c>
-      <c r="M22" s="3" t="str">
-        <f>IF(C22= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N22" s="3" t="str">
-        <f>IF(C22= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O22" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E23" s="14">
-        <v>8</v>
-      </c>
-      <c r="F23" s="14">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="13">
-        <v>58.405999999999999</v>
-      </c>
-      <c r="K23" s="13">
-        <v>85.819000000000003</v>
-      </c>
-      <c r="L23" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="M23" s="3" t="str">
-        <f>IF(C23= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N23" s="3" t="str">
-        <f>IF(C23= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="B138" s="5">
         <v>7.94</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>185</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>69</v>
+      <c r="B139" s="5">
+        <v>7.86</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>90</v>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>186</v>
       </c>
-      <c r="D24" s="14">
-        <v>2022</v>
+      <c r="B140" s="5">
+        <v>7.9</v>
       </c>
-      <c r="E24" s="14">
-        <v>8</v>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>187</v>
       </c>
-      <c r="F24" s="14">
-        <v>4</v>
+      <c r="B141" s="5">
+        <v>7.95</v>
       </c>
-      <c r="G24" s="4">
-        <v>0.54166666666666663</v>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>188</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>92</v>
+      <c r="B142" s="5">
+        <v>7.85</v>
       </c>
-      <c r="I24" s="3">
-        <v>2</v>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>189</v>
       </c>
-      <c r="J24" s="13">
-        <v>57.144399999999997</v>
+      <c r="B143" s="5">
+        <v>7.88</v>
       </c>
-      <c r="K24" s="13">
-        <v>82.384100000000004</v>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>190</v>
       </c>
-      <c r="L24" s="3">
-        <v>109</v>
+      <c r="B144" s="5">
+        <v>7.82</v>
       </c>
-      <c r="M24" s="3" t="str">
-        <f>IF(C24= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>191</v>
       </c>
-      <c r="N24" s="3" t="str">
-        <f>IF(C24= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O24" s="9">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E25" s="14">
-        <v>8</v>
-      </c>
-      <c r="F25" s="14">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="13">
-        <v>56.906999999999996</v>
-      </c>
-      <c r="K25" s="13">
-        <v>81.754999999999995</v>
-      </c>
-      <c r="L25" s="3">
-        <v>134</v>
-      </c>
-      <c r="M25" s="3" t="str">
-        <f>IF(C25= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N25" s="3" t="str">
-        <f>IF(C25= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O25" s="9">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E26" s="14">
-        <v>8</v>
-      </c>
-      <c r="F26" s="14">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="J26" s="13">
-        <v>56.691099999999999</v>
-      </c>
-      <c r="K26" s="13">
-        <v>81.190299999999993</v>
-      </c>
-      <c r="L26" s="3">
-        <v>154</v>
-      </c>
-      <c r="M26" s="3" t="str">
-        <f>IF(C26= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N26" s="3" t="str">
-        <f>IF(C26= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O26" s="9">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="14">
-        <v>8</v>
-      </c>
-      <c r="F27" s="14">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="13">
-        <v>56.521099999999997</v>
-      </c>
-      <c r="K27" s="13">
-        <v>80.635999999999996</v>
-      </c>
-      <c r="L27" s="3">
-        <v>123</v>
-      </c>
-      <c r="M27" s="3" t="str">
-        <f>IF(C27= "Flow Through", "NA", " " )</f>
-        <v>NA</v>
-      </c>
-      <c r="N27" s="3" t="str">
-        <f>IF(C27= "Flow Through", "NA", " ")</f>
-        <v>NA</v>
-      </c>
-      <c r="O27" s="9">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E28" s="14">
-        <v>8</v>
-      </c>
-      <c r="F28" s="14">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.53611111111111109</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="13">
-        <v>56.980800000000002</v>
-      </c>
-      <c r="K28" s="13">
-        <v>79.665099999999995</v>
-      </c>
-      <c r="L28" s="3">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="M28" s="3">
-        <v>5</v>
-      </c>
-      <c r="N28" s="3">
-        <v>12</v>
-      </c>
-      <c r="O28" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E29" s="14">
-        <v>8</v>
-      </c>
-      <c r="F29" s="14">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="13">
-        <v>56.980800000000002</v>
-      </c>
-      <c r="K29" s="13">
-        <v>79.664299999999997</v>
-      </c>
-      <c r="L29" s="3">
-        <v>45</v>
-      </c>
-      <c r="M29" s="3">
-        <v>6</v>
-      </c>
-      <c r="N29" s="3">
-        <v>10</v>
-      </c>
-      <c r="O29" s="9">
+      <c r="B145" s="5">
         <v>7.87</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>192</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E30" s="14">
-        <v>8</v>
-      </c>
-      <c r="F30" s="14">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="3">
-        <v>20</v>
-      </c>
-      <c r="J30" s="13">
-        <v>56.980800000000002</v>
-      </c>
-      <c r="K30" s="13">
-        <v>79.664299999999997</v>
-      </c>
-      <c r="L30" s="3">
-        <v>45</v>
-      </c>
-      <c r="M30" s="3">
-        <v>6</v>
-      </c>
-      <c r="N30" s="3">
-        <v>7</v>
-      </c>
-      <c r="O30" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E31" s="14">
-        <v>8</v>
-      </c>
-      <c r="F31" s="14">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="3">
-        <v>30</v>
-      </c>
-      <c r="J31" s="13">
-        <v>56.980800000000002</v>
-      </c>
-      <c r="K31" s="13">
-        <v>79.664299999999997</v>
-      </c>
-      <c r="L31" s="3">
-        <v>45</v>
-      </c>
-      <c r="M31" s="3">
-        <v>6</v>
-      </c>
-      <c r="N31" s="3">
-        <v>4</v>
-      </c>
-      <c r="O31" s="9">
-        <v>7.87</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E32" s="14">
-        <v>8</v>
-      </c>
-      <c r="F32" s="14">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="3">
-        <v>30</v>
-      </c>
-      <c r="J32" s="13">
-        <v>56.982900000000001</v>
-      </c>
-      <c r="K32" s="13">
-        <v>79.668099999999995</v>
-      </c>
-      <c r="L32" s="3">
-        <v>43.6</v>
-      </c>
-      <c r="M32" s="3">
-        <v>7</v>
-      </c>
-      <c r="N32" s="3">
-        <v>4</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="14">
-        <v>8</v>
-      </c>
-      <c r="F33" s="14">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.58402777777777781</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="3">
-        <v>40</v>
-      </c>
-      <c r="J33" s="13">
-        <v>56.980800000000002</v>
-      </c>
-      <c r="K33" s="13">
-        <v>79.664299999999997</v>
-      </c>
-      <c r="L33" s="3">
-        <v>45</v>
-      </c>
-      <c r="M33" s="3">
-        <v>6</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="9">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E34" s="14">
-        <v>8</v>
-      </c>
-      <c r="F34" s="14">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.8125</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="13">
-        <v>57.024720000000002</v>
-      </c>
-      <c r="K34" s="13">
-        <v>79.705830000000006</v>
-      </c>
-      <c r="L34" s="3">
-        <v>13</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O34" s="9">
-        <v>7.83</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E35" s="14">
-        <v>8</v>
-      </c>
-      <c r="F35" s="14">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J35" s="13">
-        <v>49.870033999999997</v>
-      </c>
-      <c r="K35" s="13">
-        <v>97.257270000000005</v>
-      </c>
-      <c r="L35" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O35" s="9">
-        <v>7.82</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E36" s="14">
-        <v>8</v>
-      </c>
-      <c r="F36" s="14">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.80486111111111114</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="13">
-        <v>49.870033999999997</v>
-      </c>
-      <c r="K36" s="13">
-        <v>97.257270000000005</v>
-      </c>
-      <c r="L36" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O36" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E37" s="14">
-        <v>8</v>
-      </c>
-      <c r="F37" s="14">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.8125</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="3">
-        <v>13</v>
-      </c>
-      <c r="J37" s="13">
-        <v>57.024720000000002</v>
-      </c>
-      <c r="K37" s="13">
-        <v>79.705830000000006</v>
-      </c>
-      <c r="L37" s="3">
-        <v>13</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O37" s="9">
-        <v>7.78</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E38" s="14">
-        <v>8</v>
-      </c>
-      <c r="F38" s="14">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.85833333333333339</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="3">
-        <v>25</v>
-      </c>
-      <c r="J38" s="13">
-        <v>56.969932</v>
-      </c>
-      <c r="K38" s="13">
-        <v>79.667573000000004</v>
-      </c>
-      <c r="L38" s="3">
-        <v>25</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O38" s="9">
-        <v>7.75</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="14">
-        <v>8</v>
-      </c>
-      <c r="F39" s="14">
-        <v>5</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.85833333333333339</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="13">
-        <v>56.969932</v>
-      </c>
-      <c r="K39" s="13">
-        <v>79.667573000000004</v>
-      </c>
-      <c r="L39" s="3">
-        <v>25</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O39" s="9">
-        <v>7.69</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E40" s="14">
-        <v>8</v>
-      </c>
-      <c r="F40" s="14">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="3">
-        <v>32</v>
-      </c>
-      <c r="J40" s="13">
-        <v>56.446199999999997</v>
-      </c>
-      <c r="K40" s="13">
-        <v>78.59</v>
-      </c>
-      <c r="L40" s="3">
-        <v>43</v>
-      </c>
-      <c r="M40" s="3">
-        <v>8</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="9">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E41" s="14">
-        <v>8</v>
-      </c>
-      <c r="F41" s="14">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="13">
-        <v>56.446199999999997</v>
-      </c>
-      <c r="K41" s="13">
-        <v>78.59</v>
-      </c>
-      <c r="L41" s="3">
-        <v>43</v>
-      </c>
-      <c r="M41" s="3">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
-        <v>12</v>
-      </c>
-      <c r="O41" s="9">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="14">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="3">
-        <v>20</v>
-      </c>
-      <c r="J42" s="13">
-        <v>56.4465</v>
-      </c>
-      <c r="K42" s="13">
-        <v>78.592200000000005</v>
-      </c>
-      <c r="L42" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="M42" s="3">
-        <v>9</v>
-      </c>
-      <c r="N42" s="3">
-        <v>8</v>
-      </c>
-      <c r="O42" s="9">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E43" s="14">
-        <v>8</v>
-      </c>
-      <c r="F43" s="14">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.83611111111111114</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="3">
-        <v>10</v>
-      </c>
-      <c r="J43" s="13">
-        <v>56.4465</v>
-      </c>
-      <c r="K43" s="13">
-        <v>78.592200000000005</v>
-      </c>
-      <c r="L43" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="M43" s="3">
-        <v>9</v>
-      </c>
-      <c r="N43" s="3">
-        <v>9</v>
-      </c>
-      <c r="O43" s="9">
+      <c r="B146" s="5">
         <v>7.97</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>193</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>113</v>
+      <c r="B147" s="5">
+        <v>7.98</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>91</v>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>194</v>
       </c>
-      <c r="D44" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E44" s="14">
-        <v>8</v>
-      </c>
-      <c r="F44" s="14">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.96458333333333324</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="13">
-        <v>56.437899999999999</v>
-      </c>
-      <c r="K44" s="13">
-        <v>78.650499999999994</v>
-      </c>
-      <c r="L44" s="3">
-        <v>26</v>
-      </c>
-      <c r="M44" s="3">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3">
-        <v>7</v>
-      </c>
-      <c r="O44" s="9">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E45" s="14">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14">
-        <v>6</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.96319444444444446</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25</v>
-      </c>
-      <c r="J45" s="13">
-        <v>56.437899999999999</v>
-      </c>
-      <c r="K45" s="13">
-        <v>78.650499999999994</v>
-      </c>
-      <c r="L45" s="3">
-        <v>26</v>
-      </c>
-      <c r="M45" s="3">
-        <v>10</v>
-      </c>
-      <c r="N45" s="3">
-        <v>6</v>
-      </c>
-      <c r="O45" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E46" s="14">
-        <v>8</v>
-      </c>
-      <c r="F46" s="14">
-        <v>8</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2</v>
-      </c>
-      <c r="J46" s="13">
-        <v>55.408200000000001</v>
-      </c>
-      <c r="K46" s="13">
-        <v>79.285899999999998</v>
-      </c>
-      <c r="L46" s="3">
-        <v>136</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O46" s="9">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E47" s="14">
-        <v>8</v>
-      </c>
-      <c r="F47" s="14">
-        <v>8</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2</v>
-      </c>
-      <c r="J47" s="13">
-        <v>55.1248</v>
-      </c>
-      <c r="K47" s="13">
-        <v>79.623400000000004</v>
-      </c>
-      <c r="L47" s="3">
-        <v>94</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O47" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E48" s="14">
-        <v>8</v>
-      </c>
-      <c r="F48" s="14">
-        <v>8</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2</v>
-      </c>
-      <c r="J48" s="13">
-        <v>54.864199999999997</v>
-      </c>
-      <c r="K48" s="13">
-        <v>79.902299999999997</v>
-      </c>
-      <c r="L48" s="3">
-        <v>121</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O48" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E49" s="14">
-        <v>8</v>
-      </c>
-      <c r="F49" s="14">
-        <v>8</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2</v>
-      </c>
-      <c r="J49" s="13">
-        <v>54.555199999999999</v>
-      </c>
-      <c r="K49" s="13">
-        <v>80.089200000000005</v>
-      </c>
-      <c r="L49" s="3">
-        <v>72</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O49" s="9">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E50" s="14">
-        <v>8</v>
-      </c>
-      <c r="F50" s="14">
-        <v>9</v>
-      </c>
-      <c r="G50" s="4">
-        <v>7.9166666666666663E-2</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K50" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L50" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M50" s="3">
-        <v>11</v>
-      </c>
-      <c r="N50" s="3">
-        <v>12</v>
-      </c>
-      <c r="O50" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E51" s="14">
-        <v>8</v>
-      </c>
-      <c r="F51" s="14">
-        <v>9</v>
-      </c>
-      <c r="G51" s="4">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="3">
-        <v>10</v>
-      </c>
-      <c r="J51" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K51" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L51" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M51" s="3">
-        <v>11</v>
-      </c>
-      <c r="N51" s="3">
-        <v>11</v>
-      </c>
-      <c r="O51" s="9">
+      <c r="B148" s="5">
         <v>7.9</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E52" s="14">
-        <v>8</v>
-      </c>
-      <c r="F52" s="14">
-        <v>9</v>
-      </c>
-      <c r="G52" s="4">
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="3">
-        <v>20</v>
-      </c>
-      <c r="J52" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K52" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L52" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M52" s="3">
-        <v>11</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9</v>
-      </c>
-      <c r="O52" s="9">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="14">
-        <v>8</v>
-      </c>
-      <c r="F53" s="14">
-        <v>9</v>
-      </c>
-      <c r="G53" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="3">
-        <v>30</v>
-      </c>
-      <c r="J53" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K53" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L53" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M53" s="3">
-        <v>11</v>
-      </c>
-      <c r="N53" s="3">
-        <v>7</v>
-      </c>
-      <c r="O53" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E54" s="14">
-        <v>8</v>
-      </c>
-      <c r="F54" s="14">
-        <v>9</v>
-      </c>
-      <c r="G54" s="4">
-        <v>7.3611111111111113E-2</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="3">
-        <v>40</v>
-      </c>
-      <c r="J54" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K54" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L54" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M54" s="3">
-        <v>11</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5</v>
-      </c>
-      <c r="O54" s="9">
-        <v>7.79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E55" s="14">
-        <v>8</v>
-      </c>
-      <c r="F55" s="14">
-        <v>9</v>
-      </c>
-      <c r="G55" s="4">
-        <v>7.2222222222222229E-2</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="3">
-        <v>56</v>
-      </c>
-      <c r="J55" s="13">
-        <v>54.296300000000002</v>
-      </c>
-      <c r="K55" s="13">
-        <v>80.057599999999994</v>
-      </c>
-      <c r="L55" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="M55" s="3">
-        <v>11</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="9">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E56" s="5">
-        <v>8</v>
-      </c>
-      <c r="F56" s="14">
-        <v>9</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="3">
-        <v>2</v>
-      </c>
-      <c r="J56" s="13">
-        <v>53.584800000000001</v>
-      </c>
-      <c r="K56" s="13">
-        <v>80.542400000000001</v>
-      </c>
-      <c r="L56" s="3">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O56" s="9">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E57" s="5">
-        <v>8</v>
-      </c>
-      <c r="F57" s="14">
-        <v>9</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" s="13">
-        <v>53.429000000000002</v>
-      </c>
-      <c r="K57" s="13">
-        <v>80.462800000000001</v>
-      </c>
-      <c r="L57" s="3">
-        <v>48.7</v>
-      </c>
-      <c r="M57" s="3">
-        <v>12</v>
-      </c>
-      <c r="N57" s="3">
-        <v>12</v>
-      </c>
-      <c r="O57" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E58" s="5">
-        <v>8</v>
-      </c>
-      <c r="F58" s="14">
-        <v>9</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="3">
-        <v>39</v>
-      </c>
-      <c r="J58" s="13">
-        <v>53.429000000000002</v>
-      </c>
-      <c r="K58" s="13">
-        <v>80.462800000000001</v>
-      </c>
-      <c r="L58" s="3">
-        <v>48.7</v>
-      </c>
-      <c r="M58" s="3">
-        <v>12</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="9">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E59" s="5">
-        <v>8</v>
-      </c>
-      <c r="F59" s="14">
-        <v>9</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2</v>
-      </c>
-      <c r="J59" s="16">
-        <v>53.261099999999999</v>
-      </c>
-      <c r="K59" s="16">
-        <v>80.790999999999997</v>
-      </c>
-      <c r="L59" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O59" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E60" s="5">
-        <v>8</v>
-      </c>
-      <c r="F60" s="14">
-        <v>10</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60" s="13">
-        <v>53.021900000000002</v>
-      </c>
-      <c r="K60" s="13">
-        <v>80.193700000000007</v>
-      </c>
-      <c r="L60" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="M60" s="3">
-        <v>13</v>
-      </c>
-      <c r="N60" s="3">
-        <v>12</v>
-      </c>
-      <c r="O60" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E61" s="5">
-        <v>8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>10</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.39861111111111108</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10</v>
-      </c>
-      <c r="J61" s="13">
-        <v>53.021900000000002</v>
-      </c>
-      <c r="K61" s="13">
-        <v>80.193700000000007</v>
-      </c>
-      <c r="L61" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="M61" s="3">
-        <v>13</v>
-      </c>
-      <c r="N61" s="3">
-        <v>11</v>
-      </c>
-      <c r="O61" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E62" s="5">
-        <v>8</v>
-      </c>
-      <c r="F62" s="14">
-        <v>10</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="3">
-        <v>20</v>
-      </c>
-      <c r="J62" s="13">
-        <v>53.021900000000002</v>
-      </c>
-      <c r="K62" s="13">
-        <v>80.193700000000007</v>
-      </c>
-      <c r="L62" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="M62" s="3">
-        <v>13</v>
-      </c>
-      <c r="N62" s="3">
-        <v>9</v>
-      </c>
-      <c r="O62" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E63" s="5">
-        <v>8</v>
-      </c>
-      <c r="F63" s="14">
-        <v>10</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="3">
-        <v>30</v>
-      </c>
-      <c r="J63" s="13">
-        <v>53.021900000000002</v>
-      </c>
-      <c r="K63" s="13">
-        <v>80.193700000000007</v>
-      </c>
-      <c r="L63" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="M63" s="3">
-        <v>13</v>
-      </c>
-      <c r="N63" s="3">
-        <v>7</v>
-      </c>
-      <c r="O63" s="9">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E64" s="5">
-        <v>8</v>
-      </c>
-      <c r="F64" s="14">
-        <v>10</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0.39444444444444443</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" s="3">
-        <v>40</v>
-      </c>
-      <c r="J64" s="13">
-        <v>53.021900000000002</v>
-      </c>
-      <c r="K64" s="13">
-        <v>80.193700000000007</v>
-      </c>
-      <c r="L64" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="M64" s="3">
-        <v>13</v>
-      </c>
-      <c r="N64" s="3">
-        <v>5</v>
-      </c>
-      <c r="O64" s="9">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E65" s="5">
-        <v>8</v>
-      </c>
-      <c r="F65" s="14">
-        <v>10</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J65" s="13">
-        <v>53.019599999999997</v>
-      </c>
-      <c r="K65" s="13">
-        <v>79.405199999999994</v>
-      </c>
-      <c r="L65" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="M65" s="3">
-        <v>15</v>
-      </c>
-      <c r="N65" s="3">
-        <v>12</v>
-      </c>
-      <c r="O65" s="9">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E66" s="5">
-        <v>8</v>
-      </c>
-      <c r="F66" s="14">
-        <v>10</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0.93472222222222223</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10</v>
-      </c>
-      <c r="J66" s="13">
-        <v>53.008400000000002</v>
-      </c>
-      <c r="K66" s="13">
-        <v>79.403099999999995</v>
-      </c>
-      <c r="L66" s="3">
-        <v>49.1</v>
-      </c>
-      <c r="M66" s="3">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3">
-        <v>12</v>
-      </c>
-      <c r="O66" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E67" s="5">
-        <v>8</v>
-      </c>
-      <c r="F67" s="14">
-        <v>10</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0.93263888888888891</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I67" s="3">
-        <v>20</v>
-      </c>
-      <c r="J67" s="13">
-        <v>53.008400000000002</v>
-      </c>
-      <c r="K67" s="13">
-        <v>79.403099999999995</v>
-      </c>
-      <c r="L67" s="3">
-        <v>49.1</v>
-      </c>
-      <c r="M67" s="3">
-        <v>16</v>
-      </c>
-      <c r="N67" s="3">
-        <v>7</v>
-      </c>
-      <c r="O67" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E68" s="5">
-        <v>8</v>
-      </c>
-      <c r="F68" s="14">
-        <v>10</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0.93194444444444446</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" s="3">
-        <v>30</v>
-      </c>
-      <c r="J68" s="13">
-        <v>53.008400000000002</v>
-      </c>
-      <c r="K68" s="13">
-        <v>79.403099999999995</v>
-      </c>
-      <c r="L68" s="3">
-        <v>49.1</v>
-      </c>
-      <c r="M68" s="3">
-        <v>16</v>
-      </c>
-      <c r="N68" s="3">
-        <v>4</v>
-      </c>
-      <c r="O68" s="9">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E69" s="5">
-        <v>8</v>
-      </c>
-      <c r="F69" s="14">
-        <v>10</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I69" s="3">
-        <v>40</v>
-      </c>
-      <c r="J69" s="13">
-        <v>53.008400000000002</v>
-      </c>
-      <c r="K69" s="13">
-        <v>79.403099999999995</v>
-      </c>
-      <c r="L69" s="3">
-        <v>49.1</v>
-      </c>
-      <c r="M69" s="3">
-        <v>16</v>
-      </c>
-      <c r="N69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="9">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E70" s="5">
-        <v>8</v>
-      </c>
-      <c r="F70" s="14">
-        <v>10</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I70" s="3">
-        <v>50</v>
-      </c>
-      <c r="J70" s="13">
-        <v>53.019599999999997</v>
-      </c>
-      <c r="K70" s="13">
-        <v>79.405199999999994</v>
-      </c>
-      <c r="L70" s="3">
-        <v>63.3</v>
-      </c>
-      <c r="M70" s="3">
-        <v>15</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1</v>
-      </c>
-      <c r="O70" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E71" s="5">
-        <v>8</v>
-      </c>
-      <c r="F71" s="14">
-        <v>12</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0.80069444444444438</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" s="13">
-        <v>52.238599999999998</v>
-      </c>
-      <c r="K71" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L71" s="3">
-        <v>62.3</v>
-      </c>
-      <c r="M71" s="3">
-        <v>17</v>
-      </c>
-      <c r="N71" s="3">
-        <v>12</v>
-      </c>
-      <c r="O71" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E72" s="5">
-        <v>8</v>
-      </c>
-      <c r="F72" s="14">
-        <v>11</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0.9194444444444444</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J72" s="13">
-        <v>52.996299999999998</v>
-      </c>
-      <c r="K72" s="13">
-        <v>78.822500000000005</v>
-      </c>
-      <c r="L72" s="3">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O72" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E73" s="5">
-        <v>8</v>
-      </c>
-      <c r="F73" s="14">
-        <v>11</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0.79791666666666661</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I73" s="3">
-        <v>2</v>
-      </c>
-      <c r="J73" s="13">
-        <v>52.950899999999997</v>
-      </c>
-      <c r="K73" s="13">
-        <v>78.901399999999995</v>
-      </c>
-      <c r="L73" s="3">
-        <v>18</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O73" s="9">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E74" s="5">
-        <v>8</v>
-      </c>
-      <c r="F74" s="14">
-        <v>12</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0.87083333333333324</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I74" s="3">
-        <v>10</v>
-      </c>
-      <c r="J74" s="13">
-        <v>52.238999999999997</v>
-      </c>
-      <c r="K74" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L74" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="M74" s="3">
-        <v>18</v>
-      </c>
-      <c r="N74" s="3">
-        <v>10</v>
-      </c>
-      <c r="O74" s="9">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E75" s="5">
-        <v>8</v>
-      </c>
-      <c r="F75" s="14">
-        <v>12</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0.86944444444444446</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I75" s="3">
-        <v>20</v>
-      </c>
-      <c r="J75" s="13">
-        <v>52.238999999999997</v>
-      </c>
-      <c r="K75" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L75" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="M75" s="3">
-        <v>18</v>
-      </c>
-      <c r="N75" s="3">
-        <v>9</v>
-      </c>
-      <c r="O75" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E76" s="5">
-        <v>8</v>
-      </c>
-      <c r="F76" s="14">
-        <v>12</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I76" s="3">
-        <v>30</v>
-      </c>
-      <c r="J76" s="13">
-        <v>52.238999999999997</v>
-      </c>
-      <c r="K76" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L76" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="M76" s="3">
-        <v>18</v>
-      </c>
-      <c r="N76" s="3">
-        <v>6</v>
-      </c>
-      <c r="O76" s="9">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E77" s="5">
-        <v>8</v>
-      </c>
-      <c r="F77" s="14">
-        <v>12</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I77" s="3">
-        <v>40</v>
-      </c>
-      <c r="J77" s="13">
-        <v>52.238999999999997</v>
-      </c>
-      <c r="K77" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L77" s="3">
-        <v>61.9</v>
-      </c>
-      <c r="M77" s="3">
-        <v>18</v>
-      </c>
-      <c r="N77" s="3">
-        <v>5</v>
-      </c>
-      <c r="O77" s="9">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E78" s="5">
-        <v>8</v>
-      </c>
-      <c r="F78" s="14">
-        <v>12</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0.79236111111111107</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I78" s="3">
-        <v>50</v>
-      </c>
-      <c r="J78" s="13">
-        <v>52.238599999999998</v>
-      </c>
-      <c r="K78" s="13">
-        <v>79.693600000000004</v>
-      </c>
-      <c r="L78" s="3">
-        <v>62.3</v>
-      </c>
-      <c r="M78" s="3">
-        <v>17</v>
-      </c>
-      <c r="N78" s="3">
-        <v>1</v>
-      </c>
-      <c r="O78" s="9">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E79" s="5">
-        <v>8</v>
-      </c>
-      <c r="F79" s="14">
-        <v>12</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I79" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="J79" s="13">
-        <v>52.247599999999998</v>
-      </c>
-      <c r="K79" s="13">
-        <v>79.534300000000002</v>
-      </c>
-      <c r="L79" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O79" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E80" s="5">
-        <v>8</v>
-      </c>
-      <c r="F80" s="14">
-        <v>12</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J80" s="13">
-        <v>52.247599999999998</v>
-      </c>
-      <c r="K80" s="13">
-        <v>79.534300000000002</v>
-      </c>
-      <c r="L80" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O80" s="9">
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E81" s="5">
-        <v>8</v>
-      </c>
-      <c r="F81" s="14">
-        <v>12</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I81" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="J81" s="13">
-        <v>52.2532</v>
-      </c>
-      <c r="K81" s="13">
-        <v>79.592500000000001</v>
-      </c>
-      <c r="L81" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O81" s="9">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E82" s="5">
-        <v>8</v>
-      </c>
-      <c r="F82" s="14">
-        <v>12</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J82" s="13">
-        <v>52.2532</v>
-      </c>
-      <c r="K82" s="13">
-        <v>79.592500000000001</v>
-      </c>
-      <c r="L82" s="7">
-        <v>16.8</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O82" s="9">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E83" s="5">
-        <v>8</v>
-      </c>
-      <c r="F83" s="14">
-        <v>12</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I83" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="J83" s="13">
-        <v>52.255000000000003</v>
-      </c>
-      <c r="K83" s="13">
-        <v>79.553399999999996</v>
-      </c>
-      <c r="L83" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O83" s="9">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E84" s="5">
-        <v>8</v>
-      </c>
-      <c r="F84" s="14">
-        <v>12</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J84" s="13">
-        <v>52.255000000000003</v>
-      </c>
-      <c r="K84" s="13">
-        <v>79.553399999999996</v>
-      </c>
-      <c r="L84" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O84" s="9">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E85" s="5">
-        <v>8</v>
-      </c>
-      <c r="F85" s="14">
-        <v>13</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I85" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="J85" s="13">
-        <v>52.316200000000002</v>
-      </c>
-      <c r="K85" s="13">
-        <v>79.022800000000004</v>
-      </c>
-      <c r="L85" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O85" s="9">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E86" s="5">
-        <v>8</v>
-      </c>
-      <c r="F86" s="14">
-        <v>13</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86" s="13">
-        <v>52.316200000000002</v>
-      </c>
-      <c r="K86" s="13">
-        <v>79.022800000000004</v>
-      </c>
-      <c r="L86" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O86" s="9">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E87" s="5">
-        <v>8</v>
-      </c>
-      <c r="F87" s="14">
-        <v>13</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I87" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="J87" s="13">
-        <v>52.312899999999999</v>
-      </c>
-      <c r="K87" s="13">
-        <v>79.023499999999999</v>
-      </c>
-      <c r="L87" s="7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O87" s="9">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E88" s="5">
-        <v>8</v>
-      </c>
-      <c r="F88" s="14">
-        <v>13</v>
-      </c>
-      <c r="G88" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J88" s="13">
-        <v>52.312899999999999</v>
-      </c>
-      <c r="K88" s="13">
-        <v>79.023499999999999</v>
-      </c>
-      <c r="L88" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O88" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E89" s="5">
-        <v>8</v>
-      </c>
-      <c r="F89" s="14">
-        <v>13</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0.55277777777777781</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I89" s="3">
-        <v>30</v>
-      </c>
-      <c r="J89" s="13">
-        <v>52.312899999999999</v>
-      </c>
-      <c r="K89" s="13">
-        <v>79.022499999999994</v>
-      </c>
-      <c r="L89" s="3">
-        <v>30</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O89" s="9">
-        <v>7.91</v>
-      </c>
-      <c r="R89"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E90" s="5">
-        <v>8</v>
-      </c>
-      <c r="F90" s="14">
-        <v>13</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J90" s="13">
-        <v>52.312899999999999</v>
-      </c>
-      <c r="K90" s="13">
-        <v>79.022499999999994</v>
-      </c>
-      <c r="L90" s="3">
-        <v>30</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O90" s="9">
-        <v>7.94</v>
-      </c>
-      <c r="R90"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E91" s="5">
-        <v>8</v>
-      </c>
-      <c r="F91" s="14">
-        <v>13</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J91" s="13">
-        <v>52.311199999999999</v>
-      </c>
-      <c r="K91" s="13">
-        <v>78.895700000000005</v>
-      </c>
-      <c r="L91" s="3">
-        <v>38</v>
-      </c>
-      <c r="M91" s="3">
-        <v>19</v>
-      </c>
-      <c r="N91" s="3">
-        <v>10</v>
-      </c>
-      <c r="O91" s="9">
-        <v>7.81</v>
-      </c>
-      <c r="R91"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E92" s="5">
-        <v>8</v>
-      </c>
-      <c r="F92" s="14">
-        <v>13</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I92" s="3">
-        <v>30</v>
-      </c>
-      <c r="J92" s="13">
-        <v>52.311199999999999</v>
-      </c>
-      <c r="K92" s="13">
-        <v>78.895700000000005</v>
-      </c>
-      <c r="L92" s="9">
-        <v>38</v>
-      </c>
-      <c r="M92" s="3">
-        <v>19</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1</v>
-      </c>
-      <c r="O92" s="9">
-        <v>7.68</v>
-      </c>
-      <c r="R92"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E93" s="5">
-        <v>8</v>
-      </c>
-      <c r="F93" s="14">
-        <v>13</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0.55347222222222225</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I93" s="3">
-        <v>10</v>
-      </c>
-      <c r="J93" s="13">
-        <v>52.295099999999998</v>
-      </c>
-      <c r="K93" s="13">
-        <v>78.891199999999998</v>
-      </c>
-      <c r="L93" s="3">
-        <v>31.8</v>
-      </c>
-      <c r="M93" s="3">
-        <v>20</v>
-      </c>
-      <c r="N93" s="3">
-        <v>9</v>
-      </c>
-      <c r="O93" s="9">
-        <v>7.81</v>
-      </c>
-      <c r="R93"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E94" s="5">
-        <v>8</v>
-      </c>
-      <c r="F94" s="14">
-        <v>13</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I94" s="3">
-        <v>20</v>
-      </c>
-      <c r="J94" s="13">
-        <v>52.295099999999998</v>
-      </c>
-      <c r="K94" s="13">
-        <v>78.891199999999998</v>
-      </c>
-      <c r="L94" s="3">
-        <v>31.8</v>
-      </c>
-      <c r="M94" s="3">
-        <v>20</v>
-      </c>
-      <c r="N94" s="3">
-        <v>4</v>
-      </c>
-      <c r="O94" s="9">
-        <v>7.84</v>
-      </c>
-      <c r="R94"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E95" s="5">
-        <v>8</v>
-      </c>
-      <c r="F95" s="14">
-        <v>13</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0.80069444444444438</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J95" s="13">
-        <v>52.428199999999997</v>
-      </c>
-      <c r="K95" s="13">
-        <v>79.405199999999994</v>
-      </c>
-      <c r="L95" s="3">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="M95" s="3">
-        <v>21</v>
-      </c>
-      <c r="N95" s="3">
-        <v>12</v>
-      </c>
-      <c r="O95" s="9">
-        <v>7.94</v>
-      </c>
-      <c r="R95"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E96" s="5">
-        <v>8</v>
-      </c>
-      <c r="F96" s="14">
-        <v>13</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0.78819444444444453</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I96" s="3">
-        <v>69</v>
-      </c>
-      <c r="J96" s="13">
-        <v>52.428199999999997</v>
-      </c>
-      <c r="K96" s="13">
-        <v>79.405199999999994</v>
-      </c>
-      <c r="L96" s="3">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="M96" s="3">
-        <v>21</v>
-      </c>
-      <c r="N96" s="3">
-        <v>1</v>
-      </c>
-      <c r="O96" s="9">
-        <v>7.83</v>
-      </c>
-      <c r="R96"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E97" s="5">
-        <v>8</v>
-      </c>
-      <c r="F97" s="14">
-        <v>15</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I97" s="3">
-        <v>2</v>
-      </c>
-      <c r="J97" s="13">
-        <v>51.472000000000001</v>
-      </c>
-      <c r="K97" s="13">
-        <v>80.243600000000001</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O97" s="9">
-        <v>7.82</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="R97"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E98" s="5">
-        <v>8</v>
-      </c>
-      <c r="F98" s="14">
-        <v>15</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J98" s="13">
-        <v>51.323700000000002</v>
-      </c>
-      <c r="K98" s="13">
-        <v>80.463399999999993</v>
-      </c>
-      <c r="L98" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O98" s="9">
-        <v>8.01</v>
-      </c>
-      <c r="R98"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E99" s="5">
-        <v>8</v>
-      </c>
-      <c r="F99" s="14">
-        <v>16</v>
-      </c>
-      <c r="G99" s="4">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J99" s="13">
-        <v>51.404400000000003</v>
-      </c>
-      <c r="K99" s="13">
-        <v>80.327399999999997</v>
-      </c>
-      <c r="L99" s="3">
-        <v>6</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O99" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="R99"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E100" s="5">
-        <v>8</v>
-      </c>
-      <c r="F100" s="14">
-        <v>16</v>
-      </c>
-      <c r="G100" s="4">
-        <v>0.66875000000000007</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2</v>
-      </c>
-      <c r="J100" s="13">
-        <v>51.852499999999999</v>
-      </c>
-      <c r="K100" s="13">
-        <v>80.018500000000003</v>
-      </c>
-      <c r="L100" s="3">
-        <v>25</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O100" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="R100"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E101" s="5">
-        <v>8</v>
-      </c>
-      <c r="F101" s="14">
-        <v>16</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0.79305555555555562</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2</v>
-      </c>
-      <c r="J101" s="13">
-        <v>52.208199999999998</v>
-      </c>
-      <c r="K101" s="13">
-        <v>79.7727</v>
-      </c>
-      <c r="L101" s="3">
-        <v>49.5</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O101" s="9">
-        <v>7.86</v>
-      </c>
-      <c r="R101"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D102" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E102" s="5">
-        <v>8</v>
-      </c>
-      <c r="F102" s="14">
-        <v>16</v>
-      </c>
-      <c r="G102" s="4">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2</v>
-      </c>
-      <c r="J102" s="13">
-        <v>52.452199999999998</v>
-      </c>
-      <c r="K102" s="13">
-        <v>79.405500000000004</v>
-      </c>
-      <c r="L102" s="3">
-        <v>80.7</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O102" s="9">
-        <v>7.86</v>
-      </c>
-      <c r="R102"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E103" s="5">
-        <v>8</v>
-      </c>
-      <c r="F103" s="14">
-        <v>17</v>
-      </c>
-      <c r="G103" s="4">
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I103" s="3">
-        <v>2</v>
-      </c>
-      <c r="J103" s="13">
-        <v>52.604599999999998</v>
-      </c>
-      <c r="K103" s="13">
-        <v>79.400300000000001</v>
-      </c>
-      <c r="L103" s="3">
-        <v>39.5</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O103" s="9">
-        <v>7.92</v>
-      </c>
-      <c r="R103"/>
-    </row>
-    <row r="104" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E104" s="5">
-        <v>8</v>
-      </c>
-      <c r="F104" s="5">
-        <v>17</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0.94374999999999998</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J104" s="13">
-        <v>52.982999999999997</v>
-      </c>
-      <c r="K104" s="13">
-        <v>78.858000000000004</v>
-      </c>
-      <c r="L104" s="3">
-        <v>7.23</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P104" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="R104"/>
-    </row>
-    <row r="105" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E105" s="5">
-        <v>8</v>
-      </c>
-      <c r="F105" s="5">
-        <v>17</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0.85486111111111107</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="13">
-        <v>52.995697</v>
-      </c>
-      <c r="K105" s="13">
-        <v>78.844204000000005</v>
-      </c>
-      <c r="L105" s="3">
-        <v>28.1</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O105" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P105" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="R105"/>
-    </row>
-    <row r="106" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E106" s="5">
-        <v>8</v>
-      </c>
-      <c r="F106" s="5">
-        <v>17</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0.85486111111111107</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I106" s="3">
-        <v>1</v>
-      </c>
-      <c r="J106" s="13">
-        <v>52.995697</v>
-      </c>
-      <c r="K106" s="13">
-        <v>78.844204000000005</v>
-      </c>
-      <c r="L106" s="3">
-        <v>28.1</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O106" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P106" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="R106"/>
-    </row>
-    <row r="107" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E107" s="5">
-        <v>8</v>
-      </c>
-      <c r="F107" s="5">
-        <v>17</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0.79583333333333339</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J107" s="13">
-        <v>52.996290000000002</v>
-      </c>
-      <c r="K107" s="13">
-        <v>78.822326000000004</v>
-      </c>
-      <c r="L107" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P107" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="R107"/>
-    </row>
-    <row r="108" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E108" s="5">
-        <v>8</v>
-      </c>
-      <c r="F108" s="5">
-        <v>17</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0.87916666666666676</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I108" s="3">
-        <v>8</v>
-      </c>
-      <c r="J108" s="13">
-        <v>52.991</v>
-      </c>
-      <c r="K108" s="13">
-        <v>78.856099999999998</v>
-      </c>
-      <c r="L108" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O108" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P108" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="R108"/>
-    </row>
-    <row r="109" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E109" s="5">
-        <v>8</v>
-      </c>
-      <c r="F109" s="5">
-        <v>17</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0.87916666666666676</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J109" s="13">
-        <v>52.991</v>
-      </c>
-      <c r="K109" s="13">
-        <v>78.856099999999998</v>
-      </c>
-      <c r="L109" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O109" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P109" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="R109"/>
-    </row>
-    <row r="110" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E110" s="5">
-        <v>8</v>
-      </c>
-      <c r="F110" s="5">
-        <v>17</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0.79583333333333339</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I110" s="3">
-        <v>2</v>
-      </c>
-      <c r="J110" s="13">
-        <v>52.996290000000002</v>
-      </c>
-      <c r="K110" s="13">
-        <v>78.822326000000004</v>
-      </c>
-      <c r="L110" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O110" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P110" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="R110"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E111" s="5">
-        <v>8</v>
-      </c>
-      <c r="F111" s="5">
-        <v>18</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I111" s="3">
-        <v>2</v>
-      </c>
-      <c r="J111" s="13">
-        <v>53.870800000000003</v>
-      </c>
-      <c r="K111" s="13">
-        <v>79.342500000000001</v>
-      </c>
-      <c r="L111" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O111" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="R111"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E112" s="5">
-        <v>8</v>
-      </c>
-      <c r="F112" s="5">
-        <v>18</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I112" s="3">
-        <v>30</v>
-      </c>
-      <c r="J112" s="13">
-        <v>53.870800000000003</v>
-      </c>
-      <c r="K112" s="13">
-        <v>79.342500000000001</v>
-      </c>
-      <c r="L112" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M112" s="3">
-        <v>22</v>
-      </c>
-      <c r="N112" s="3">
-        <v>1</v>
-      </c>
-      <c r="O112" s="9">
-        <v>7.81</v>
-      </c>
-      <c r="R112"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E113" s="5">
-        <v>8</v>
-      </c>
-      <c r="F113" s="5">
-        <v>18</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I113" s="3">
-        <v>20</v>
-      </c>
-      <c r="J113" s="13">
-        <v>53.870800000000003</v>
-      </c>
-      <c r="K113" s="13">
-        <v>79.342500000000001</v>
-      </c>
-      <c r="L113" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M113" s="3">
-        <v>22</v>
-      </c>
-      <c r="N113" s="3">
-        <v>3</v>
-      </c>
-      <c r="O113" s="9">
-        <v>7.83</v>
-      </c>
-      <c r="R113"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E114" s="5">
-        <v>8</v>
-      </c>
-      <c r="F114" s="5">
-        <v>18</v>
-      </c>
-      <c r="G114" s="4">
-        <v>0.59097222222222223</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I114" s="3">
-        <v>10</v>
-      </c>
-      <c r="J114" s="13">
-        <v>53.870800000000003</v>
-      </c>
-      <c r="K114" s="13">
-        <v>79.342500000000001</v>
-      </c>
-      <c r="L114" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M114" s="3">
-        <v>22</v>
-      </c>
-      <c r="N114" s="3">
-        <v>7</v>
-      </c>
-      <c r="O114" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="P114" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="R114"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E115" s="5">
-        <v>8</v>
-      </c>
-      <c r="F115" s="5">
-        <v>18</v>
-      </c>
-      <c r="G115" s="4">
-        <v>0.79791666666666661</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I115" s="3">
-        <v>2</v>
-      </c>
-      <c r="J115" s="13">
-        <v>53.994100000000003</v>
-      </c>
-      <c r="K115" s="13">
-        <v>79.695599999999999</v>
-      </c>
-      <c r="L115" s="3">
-        <v>45.8</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O115" s="9">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="R115"/>
-      <c r="AC115" s="3"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E116" s="5">
-        <v>8</v>
-      </c>
-      <c r="F116" s="5">
-        <v>18</v>
-      </c>
-      <c r="G116" s="4">
-        <v>0.92291666666666661</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I116" s="3">
-        <v>2</v>
-      </c>
-      <c r="J116" s="13">
-        <v>54.295200000000001</v>
-      </c>
-      <c r="K116" s="13">
-        <v>79.873199999999997</v>
-      </c>
-      <c r="L116" s="3">
-        <v>59.3</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O116" s="9">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="R116"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E117" s="5">
-        <v>8</v>
-      </c>
-      <c r="F117" s="5">
-        <v>19</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I117" s="3">
-        <v>10</v>
-      </c>
-      <c r="J117" s="13">
-        <v>53.813899999999997</v>
-      </c>
-      <c r="K117" s="13">
-        <v>80.710700000000003</v>
-      </c>
-      <c r="L117" s="3">
-        <v>21</v>
-      </c>
-      <c r="M117" s="3">
-        <v>23</v>
-      </c>
-      <c r="N117" s="3">
-        <v>6</v>
-      </c>
-      <c r="O117" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="R117"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E118" s="5">
-        <v>8</v>
-      </c>
-      <c r="F118" s="5">
-        <v>19</v>
-      </c>
-      <c r="G118" s="4">
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J118" s="13">
-        <v>53.813899999999997</v>
-      </c>
-      <c r="K118" s="13">
-        <v>80.710700000000003</v>
-      </c>
-      <c r="L118" s="3">
-        <v>21</v>
-      </c>
-      <c r="M118" s="3">
-        <v>23</v>
-      </c>
-      <c r="N118" s="3">
-        <v>7</v>
-      </c>
-      <c r="O118" s="9">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E119" s="5">
-        <v>8</v>
-      </c>
-      <c r="F119" s="5">
-        <v>19</v>
-      </c>
-      <c r="G119" s="4">
-        <v>0.76527777777777783</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I119" s="3">
-        <v>50</v>
-      </c>
-      <c r="J119" s="13">
-        <v>54.2744</v>
-      </c>
-      <c r="K119" s="13">
-        <v>81.476100000000002</v>
-      </c>
-      <c r="L119" s="3">
-        <v>62.1</v>
-      </c>
-      <c r="M119" s="3">
-        <v>24</v>
-      </c>
-      <c r="N119" s="3">
-        <v>2</v>
-      </c>
-      <c r="O119" s="9">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E120" s="5">
-        <v>8</v>
-      </c>
-      <c r="F120" s="5">
-        <v>19</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0.7680555555555556</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I120" s="3">
-        <v>40</v>
-      </c>
-      <c r="J120" s="13">
-        <v>54.2744</v>
-      </c>
-      <c r="K120" s="13">
-        <v>81.476100000000002</v>
-      </c>
-      <c r="L120" s="3">
-        <v>62.1</v>
-      </c>
-      <c r="M120" s="3">
-        <v>24</v>
-      </c>
-      <c r="N120" s="3">
-        <v>5</v>
-      </c>
-      <c r="O120" s="9">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E121" s="5">
-        <v>8</v>
-      </c>
-      <c r="F121" s="5">
-        <v>19</v>
-      </c>
-      <c r="G121" s="4">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I121" s="3">
-        <v>30</v>
-      </c>
-      <c r="J121" s="13">
-        <v>54.276000000000003</v>
-      </c>
-      <c r="K121" s="13">
-        <v>81.475899999999996</v>
-      </c>
-      <c r="L121" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="M121" s="3">
-        <v>25</v>
-      </c>
-      <c r="N121" s="3">
-        <v>2</v>
-      </c>
-      <c r="O121" s="9">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E122" s="5">
-        <v>8</v>
-      </c>
-      <c r="F122" s="5">
-        <v>19</v>
-      </c>
-      <c r="G122" s="4">
-        <v>0.84236111111111101</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I122" s="3">
-        <v>20</v>
-      </c>
-      <c r="J122" s="13">
-        <v>54.276000000000003</v>
-      </c>
-      <c r="K122" s="13">
-        <v>81.475899999999996</v>
-      </c>
-      <c r="L122" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="M122" s="3">
-        <v>25</v>
-      </c>
-      <c r="N122" s="3">
-        <v>6</v>
-      </c>
-      <c r="O122" s="9">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E123" s="5">
-        <v>8</v>
-      </c>
-      <c r="F123" s="5">
-        <v>19</v>
-      </c>
-      <c r="G123" s="4">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I123" s="3">
-        <v>10</v>
-      </c>
-      <c r="J123" s="13">
-        <v>54.276000000000003</v>
-      </c>
-      <c r="K123" s="13">
-        <v>81.475899999999996</v>
-      </c>
-      <c r="L123" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="M123" s="3">
-        <v>25</v>
-      </c>
-      <c r="N123" s="3">
-        <v>9</v>
-      </c>
-      <c r="O123" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E124" s="5">
-        <v>8</v>
-      </c>
-      <c r="F124" s="5">
-        <v>19</v>
-      </c>
-      <c r="G124" s="4">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J124" s="13">
-        <v>54.276000000000003</v>
-      </c>
-      <c r="K124" s="13">
-        <v>81.475899999999996</v>
-      </c>
-      <c r="L124" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="M124" s="3">
-        <v>25</v>
-      </c>
-      <c r="N124" s="3">
-        <v>11</v>
-      </c>
-      <c r="O124" s="9">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E125" s="5">
-        <v>8</v>
-      </c>
-      <c r="F125" s="5">
-        <v>20</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0.49791666666666662</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I125" s="3">
-        <v>90</v>
-      </c>
-      <c r="J125" s="13">
-        <v>54.686399999999999</v>
-      </c>
-      <c r="K125" s="13">
-        <v>80.186400000000006</v>
-      </c>
-      <c r="L125" s="3">
-        <v>100</v>
-      </c>
-      <c r="M125" s="3">
-        <v>26</v>
-      </c>
-      <c r="N125" s="3">
-        <v>4</v>
-      </c>
-      <c r="O125" s="9">
-        <v>7.67</v>
-      </c>
-      <c r="R125"/>
-      <c r="AC125" s="3"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E126" s="5">
-        <v>8</v>
-      </c>
-      <c r="F126" s="5">
-        <v>20</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I126" s="3">
-        <v>40</v>
-      </c>
-      <c r="J126" s="13">
-        <v>54.686399999999999</v>
-      </c>
-      <c r="K126" s="13">
-        <v>80.186400000000006</v>
-      </c>
-      <c r="L126" s="3">
-        <v>100</v>
-      </c>
-      <c r="M126" s="3">
-        <v>26</v>
-      </c>
-      <c r="N126" s="3">
-        <v>6</v>
-      </c>
-      <c r="O126" s="9">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E127" s="5">
-        <v>8</v>
-      </c>
-      <c r="F127" s="5">
-        <v>20</v>
-      </c>
-      <c r="G127" s="4">
-        <v>0.5541666666666667</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I127" s="3">
-        <v>30</v>
-      </c>
-      <c r="J127" s="13">
-        <v>54.686700000000002</v>
-      </c>
-      <c r="K127" s="13">
-        <v>80.188599999999994</v>
-      </c>
-      <c r="L127" s="3">
-        <v>102</v>
-      </c>
-      <c r="M127" s="3">
-        <v>27</v>
-      </c>
-      <c r="N127" s="3">
-        <v>2</v>
-      </c>
-      <c r="O127" s="9">
-        <v>7.77</v>
-      </c>
-      <c r="P127" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E128" s="5">
-        <v>8</v>
-      </c>
-      <c r="F128" s="5">
-        <v>20</v>
-      </c>
-      <c r="G128" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I128" s="3">
-        <v>20</v>
-      </c>
-      <c r="J128" s="13">
-        <v>54.686700000000002</v>
-      </c>
-      <c r="K128" s="13">
-        <v>80.188599999999994</v>
-      </c>
-      <c r="L128" s="3">
-        <v>102</v>
-      </c>
-      <c r="M128" s="3">
-        <v>27</v>
-      </c>
-      <c r="N128" s="3">
-        <v>6</v>
-      </c>
-      <c r="O128" s="9">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E129" s="5">
-        <v>8</v>
-      </c>
-      <c r="F129" s="5">
-        <v>20</v>
-      </c>
-      <c r="G129" s="4">
-        <v>0.55694444444444446</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I129" s="3">
-        <v>12</v>
-      </c>
-      <c r="J129" s="13">
-        <v>54.686700000000002</v>
-      </c>
-      <c r="K129" s="13">
-        <v>80.188599999999994</v>
-      </c>
-      <c r="L129" s="3">
-        <v>102</v>
-      </c>
-      <c r="M129" s="3">
-        <v>27</v>
-      </c>
-      <c r="N129" s="3">
-        <v>8</v>
-      </c>
-      <c r="O129" s="9">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E130" s="5">
-        <v>8</v>
-      </c>
-      <c r="F130" s="5">
-        <v>20</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0.55833333333333335</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J130" s="13">
-        <v>54.686700000000002</v>
-      </c>
-      <c r="K130" s="13">
-        <v>80.188599999999994</v>
-      </c>
-      <c r="L130" s="3">
-        <v>102</v>
-      </c>
-      <c r="M130" s="3">
-        <v>27</v>
-      </c>
-      <c r="N130" s="3">
-        <v>10</v>
-      </c>
-      <c r="O130" s="9">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E131" s="5">
-        <v>8</v>
-      </c>
-      <c r="F131" s="5">
-        <v>20</v>
-      </c>
-      <c r="G131" s="4">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I131" s="3">
-        <v>2</v>
-      </c>
-      <c r="J131" s="13">
-        <v>54.871099999999998</v>
-      </c>
-      <c r="K131" s="13">
-        <v>79.711399999999998</v>
-      </c>
-      <c r="L131" s="3">
-        <v>114</v>
-      </c>
-      <c r="M131" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N131" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P131" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D132" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E132" s="5">
-        <v>8</v>
-      </c>
-      <c r="F132" s="5">
-        <v>20</v>
-      </c>
-      <c r="G132" s="4">
-        <v>0.93263888888888891</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I132" s="3">
-        <v>2</v>
-      </c>
-      <c r="J132" s="13">
-        <v>54.969900000000003</v>
-      </c>
-      <c r="K132" s="13">
-        <v>79.250500000000002</v>
-      </c>
-      <c r="L132" s="3">
-        <v>114</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O132" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E133" s="5">
-        <v>8</v>
-      </c>
-      <c r="F133" s="5">
-        <v>21</v>
-      </c>
-      <c r="G133" s="4">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I133" s="3">
-        <v>2</v>
-      </c>
-      <c r="J133" s="13">
-        <v>55.173400000000001</v>
-      </c>
-      <c r="K133" s="13">
-        <v>79.251199999999997</v>
-      </c>
-      <c r="L133" s="3">
-        <v>127</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E134" s="5">
-        <v>8</v>
-      </c>
-      <c r="F134" s="5">
-        <v>21</v>
-      </c>
-      <c r="G134" s="4">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I134" s="3">
-        <v>90</v>
-      </c>
-      <c r="J134" s="13">
-        <v>55.622599999999998</v>
-      </c>
-      <c r="K134" s="13">
-        <v>79.026300000000006</v>
-      </c>
-      <c r="L134" s="3">
-        <v>99</v>
-      </c>
-      <c r="M134" s="3">
-        <v>28</v>
-      </c>
-      <c r="N134" s="3">
-        <v>4</v>
-      </c>
-      <c r="O134" s="9">
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D135" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E135" s="5">
-        <v>8</v>
-      </c>
-      <c r="F135" s="5">
-        <v>21</v>
-      </c>
-      <c r="G135" s="4">
-        <v>0.49791666666666662</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I135" s="3">
-        <v>40</v>
-      </c>
-      <c r="J135" s="13">
-        <v>55.622599999999998</v>
-      </c>
-      <c r="K135" s="13">
-        <v>79.026300000000006</v>
-      </c>
-      <c r="L135" s="3">
-        <v>99</v>
-      </c>
-      <c r="M135" s="3">
-        <v>28</v>
-      </c>
-      <c r="N135" s="3">
-        <v>5</v>
-      </c>
-      <c r="O135" s="9">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E136" s="5">
-        <v>8</v>
-      </c>
-      <c r="F136" s="5">
-        <v>21</v>
-      </c>
-      <c r="G136" s="4">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I136" s="3">
-        <v>30</v>
-      </c>
-      <c r="J136" s="13">
-        <v>55.628</v>
-      </c>
-      <c r="K136" s="13">
-        <v>79.027000000000001</v>
-      </c>
-      <c r="L136" s="3">
-        <v>114</v>
-      </c>
-      <c r="M136" s="3">
-        <v>29</v>
-      </c>
-      <c r="N136" s="3">
-        <v>3</v>
-      </c>
-      <c r="O136" s="9">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D137" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E137" s="5">
-        <v>8</v>
-      </c>
-      <c r="F137" s="5">
-        <v>21</v>
-      </c>
-      <c r="G137" s="4">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I137" s="3">
-        <v>20</v>
-      </c>
-      <c r="J137" s="13">
-        <v>55.628</v>
-      </c>
-      <c r="K137" s="13">
-        <v>79.027000000000001</v>
-      </c>
-      <c r="L137" s="3">
-        <v>114</v>
-      </c>
-      <c r="M137" s="3">
-        <v>29</v>
-      </c>
-      <c r="N137" s="3">
-        <v>4</v>
-      </c>
-      <c r="O137" s="9">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E138" s="5">
-        <v>8</v>
-      </c>
-      <c r="F138" s="5">
-        <v>21</v>
-      </c>
-      <c r="G138" s="4">
-        <v>0.57013888888888886</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I138" s="3">
-        <v>10</v>
-      </c>
-      <c r="J138" s="13">
-        <v>55.628</v>
-      </c>
-      <c r="K138" s="13">
-        <v>79.027000000000001</v>
-      </c>
-      <c r="L138" s="3">
-        <v>114</v>
-      </c>
-      <c r="M138" s="3">
-        <v>29</v>
-      </c>
-      <c r="N138" s="3">
-        <v>9</v>
-      </c>
-      <c r="O138" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D139" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E139" s="5">
-        <v>8</v>
-      </c>
-      <c r="F139" s="5">
-        <v>21</v>
-      </c>
-      <c r="G139" s="4">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J139" s="13">
-        <v>55.628</v>
-      </c>
-      <c r="K139" s="13">
-        <v>79.027000000000001</v>
-      </c>
-      <c r="L139" s="3">
-        <v>114</v>
-      </c>
-      <c r="M139" s="3">
-        <v>29</v>
-      </c>
-      <c r="N139" s="3">
-        <v>10</v>
-      </c>
-      <c r="O139" s="9">
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D140" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E140" s="5">
-        <v>8</v>
-      </c>
-      <c r="F140" s="5">
-        <v>21</v>
-      </c>
-      <c r="G140" s="4">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I140" s="3">
-        <v>25</v>
-      </c>
-      <c r="J140" s="13">
-        <v>55.790599999999998</v>
-      </c>
-      <c r="K140" s="13">
-        <v>79.454700000000003</v>
-      </c>
-      <c r="L140" s="3">
-        <v>34.6</v>
-      </c>
-      <c r="M140" s="3">
-        <v>30</v>
-      </c>
-      <c r="N140" s="3">
-        <v>3</v>
-      </c>
-      <c r="O140" s="9">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D141" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E141" s="5">
-        <v>8</v>
-      </c>
-      <c r="F141" s="5">
-        <v>21</v>
-      </c>
-      <c r="G141" s="4">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I141" s="3">
-        <v>16</v>
-      </c>
-      <c r="J141" s="13">
-        <v>55.790599999999998</v>
-      </c>
-      <c r="K141" s="13">
-        <v>79.454700000000003</v>
-      </c>
-      <c r="L141" s="3">
-        <v>34.6</v>
-      </c>
-      <c r="M141" s="3">
-        <v>30</v>
-      </c>
-      <c r="N141" s="3">
-        <v>5</v>
-      </c>
-      <c r="O141" s="9">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D142" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E142" s="5">
-        <v>8</v>
-      </c>
-      <c r="F142" s="5">
-        <v>21</v>
-      </c>
-      <c r="G142" s="4">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J142" s="13">
-        <v>55.790599999999998</v>
-      </c>
-      <c r="K142" s="13">
-        <v>79.454700000000003</v>
-      </c>
-      <c r="L142" s="3">
-        <v>34.6</v>
-      </c>
-      <c r="M142" s="3">
-        <v>30</v>
-      </c>
-      <c r="N142" s="3">
-        <v>9</v>
-      </c>
-      <c r="O142" s="9">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D143" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E143" s="5">
-        <v>8</v>
-      </c>
-      <c r="F143" s="5">
-        <v>22</v>
-      </c>
-      <c r="G143" s="4">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I143" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="J143" s="13">
-        <f>55+(53.623/60)</f>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K143" s="13">
-        <f>79+(48.694/60)</f>
-        <v>79.811566666666664</v>
-      </c>
-      <c r="L143" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M143" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N143" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O143" s="9">
-        <v>7.85</v>
-      </c>
-      <c r="P143" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D144" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E144" s="5">
-        <v>8</v>
-      </c>
-      <c r="F144" s="5">
-        <v>22</v>
-      </c>
-      <c r="G144" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J144" s="13">
-        <f t="shared" ref="J144:J152" si="0">55+(53.623/60)</f>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K144" s="13">
-        <f>79+(48.694/60)</f>
-        <v>79.811566666666664</v>
-      </c>
-      <c r="L144" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="M144" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N144" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O144" s="9">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D145" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E145" s="5">
-        <v>8</v>
-      </c>
-      <c r="F145" s="5">
-        <v>22</v>
-      </c>
-      <c r="G145" s="4">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I145" s="3">
-        <v>57</v>
-      </c>
-      <c r="J145" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K145" s="13">
-        <v>79.778099999999995</v>
-      </c>
-      <c r="L145" s="3">
-        <v>73.7</v>
-      </c>
-      <c r="M145" s="3">
-        <v>31</v>
-      </c>
-      <c r="N145" s="3">
-        <v>4</v>
-      </c>
-      <c r="O145" s="9">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E146" s="5">
-        <v>8</v>
-      </c>
-      <c r="F146" s="5">
-        <v>22</v>
-      </c>
-      <c r="G146" s="4">
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I146" s="3">
-        <v>40</v>
-      </c>
-      <c r="J146" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K146" s="13">
-        <v>79.778099999999995</v>
-      </c>
-      <c r="L146" s="3">
-        <v>73.7</v>
-      </c>
-      <c r="M146" s="3">
-        <v>31</v>
-      </c>
-      <c r="N146" s="3">
-        <v>5</v>
-      </c>
-      <c r="O146" s="9">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D147" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E147" s="5">
-        <v>8</v>
-      </c>
-      <c r="F147" s="5">
-        <v>22</v>
-      </c>
-      <c r="G147" s="4">
-        <v>0.62291666666666667</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I147" s="3">
-        <v>2</v>
-      </c>
-      <c r="J147" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K147" s="13">
-        <v>79.778099999999995</v>
-      </c>
-      <c r="L147" s="3">
-        <v>73.7</v>
-      </c>
-      <c r="M147" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N147" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O147" s="9">
+      <c r="B149" s="5">
         <v>7.97</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D148" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E148" s="5">
-        <v>8</v>
-      </c>
-      <c r="F148" s="5">
-        <v>23</v>
-      </c>
-      <c r="G148" s="4">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I148" s="3">
-        <v>2</v>
-      </c>
-      <c r="J148" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K148" s="13">
-        <v>80.304900000000004</v>
-      </c>
-      <c r="L148" s="3">
-        <v>112</v>
-      </c>
-      <c r="M148" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N148" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O148" s="9">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D149" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E149" s="5">
-        <v>8</v>
-      </c>
-      <c r="F149" s="5">
-        <v>23</v>
-      </c>
-      <c r="G149" s="4">
-        <v>0.69374999999999998</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I149" s="3">
-        <v>2</v>
-      </c>
-      <c r="J149" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K149" s="13">
-        <v>79.517449999999997</v>
-      </c>
-      <c r="L149" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="M149" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N149" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O149" s="9">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D150" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E150" s="5">
-        <v>8</v>
-      </c>
-      <c r="F150" s="5">
-        <v>23</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I150" s="3">
-        <v>2</v>
-      </c>
-      <c r="J150" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K150" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O150" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P150" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D151" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E151" s="5">
-        <v>8</v>
-      </c>
-      <c r="F151" s="5">
-        <v>24</v>
-      </c>
-      <c r="G151" s="4">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I151" s="3">
-        <v>2</v>
-      </c>
-      <c r="J151" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K151" s="15">
-        <v>79.637</v>
-      </c>
-      <c r="L151" s="3">
-        <v>26.1</v>
-      </c>
-      <c r="M151" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N151" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O151" s="9">
-        <v>7.97</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D152" s="5">
-        <v>2022</v>
-      </c>
-      <c r="E152" s="5">
-        <v>8</v>
-      </c>
-      <c r="F152" s="5">
-        <v>24</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I152" s="3">
-        <v>2</v>
-      </c>
-      <c r="J152" s="13">
-        <f t="shared" si="0"/>
-        <v>55.89371666666667</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M152" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="N152" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O152" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P152" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R90:AB116">
-    <sortCondition ref="R90:R116"/>
-    <sortCondition ref="AB90:AB116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D89:N115">
+    <sortCondition ref="D89:D115"/>
+    <sortCondition ref="N89:N115"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57911,136 +51552,136 @@
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>61</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>46.03</v>
       </c>
       <c r="E2" s="3">
         <v>84</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
         <v>61</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>46.03</v>
       </c>
       <c r="E3" s="3">
         <v>84</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>61</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>46.03</v>
       </c>
       <c r="E4" s="3">
         <v>84</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>61</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>46.03</v>
       </c>
       <c r="E5" s="3">
         <v>84</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3">
         <v>61</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>46.03</v>
       </c>
       <c r="E6" s="3">
         <v>84</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>61</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>46.03</v>
       </c>
       <c r="E7" s="3">
         <v>84</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>16.195</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>61</v>
@@ -58051,16 +51692,16 @@
       <c r="E8" s="3">
         <v>84</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>18.076000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>61</v>
@@ -58071,16 +51712,16 @@
       <c r="E9" s="3">
         <v>84</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>18.076000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3">
         <v>61</v>
@@ -58091,136 +51732,136 @@
       <c r="E10" s="3">
         <v>84</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>18.076000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
         <v>59</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>91</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3">
         <v>59</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>59</v>
       </c>
       <c r="E12" s="3">
         <v>91</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3">
         <v>59</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="4">
         <v>59</v>
       </c>
       <c r="E13" s="3">
         <v>91</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3">
         <v>59</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>91</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3">
         <v>59</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>91</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3">
         <v>59</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="4">
         <v>59</v>
       </c>
       <c r="E16" s="3">
         <v>91</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>56.463999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>59</v>
@@ -58231,16 +51872,16 @@
       <c r="E17" s="3">
         <v>91</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>56.652000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3">
         <v>59</v>
@@ -58251,16 +51892,16 @@
       <c r="E18" s="3">
         <v>91</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>56.652000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3">
         <v>59</v>
@@ -58271,16 +51912,16 @@
       <c r="E19" s="3">
         <v>91</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3">
         <v>59</v>
@@ -58291,16 +51932,16 @@
       <c r="E20" s="3">
         <v>90</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>29.163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3">
         <v>58</v>
@@ -58311,16 +51952,16 @@
       <c r="E21" s="3">
         <v>86</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>22.948</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3">
         <v>58</v>
@@ -58331,7 +51972,7 @@
       <c r="E22" s="3">
         <v>85</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>35.848999999999997</v>
       </c>
     </row>

--- a/wk22_pH.xlsx
+++ b/wk22_pH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwdec\Documents\pH-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E450778C-B767-4487-B84C-F7D0E9B9AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1819F67-F627-4FFE-9BEE-28AE91E2B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
   <si>
     <t>Sample identification number</t>
   </si>
@@ -633,13 +633,20 @@
   <si>
     <t>pH_f</t>
   </si>
+  <si>
+    <t>temp_c</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -695,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -717,6 +724,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50266,10 +50276,10 @@
   <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B130" sqref="A130:B132"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50287,6 +50297,9 @@
       <c r="B1" s="5" t="s">
         <v>197</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -50306,6 +50319,9 @@
       <c r="B2" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -50314,6 +50330,9 @@
       <c r="B3" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -50322,6 +50341,9 @@
       <c r="B4" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -50330,6 +50352,9 @@
       <c r="B5" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -50338,6 +50363,9 @@
       <c r="B6" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -50346,6 +50374,9 @@
       <c r="B7" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -50354,6 +50385,9 @@
       <c r="B8" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -50362,6 +50396,9 @@
       <c r="B9" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -50370,6 +50407,9 @@
       <c r="B10" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -50378,6 +50418,9 @@
       <c r="B11" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -50386,6 +50429,9 @@
       <c r="B12" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -50394,6 +50440,9 @@
       <c r="B13" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -50402,6 +50451,9 @@
       <c r="B14" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -50410,6 +50462,9 @@
       <c r="B15" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -50418,517 +50473,713 @@
       <c r="B16" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="5">
         <v>7.77</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="5">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="5">
         <v>7.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="5">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="5">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="5">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="9">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="5">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="9">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="5">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="9">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="5">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="5">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="5">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="5">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="5">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="5">
         <v>7.77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="9">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="5">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="5">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="9">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="5">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B44" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B45" s="5">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="9">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="9">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="5">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B53" s="5">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="9">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="5">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="9">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B55" s="5">
         <v>7.74</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="9">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="9">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B57" s="5">
         <v>7.74</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="9">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B59" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="5">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B64" s="5">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B65" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B67" s="5">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B68" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B69" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="9">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B71" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="9">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="5">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="9">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B74" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="9">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="5">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="9">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B76" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="9">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B77" s="5">
         <v>7.82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="9">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="5">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="5">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B80" s="5">
         <v>7.95</v>
+      </c>
+      <c r="C80" s="9">
+        <v>15.2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -50938,6 +51189,9 @@
       <c r="B81" s="5">
         <v>7.94</v>
       </c>
+      <c r="C81" s="9">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -50946,6 +51200,9 @@
       <c r="B82" s="5">
         <v>7.89</v>
       </c>
+      <c r="C82" s="9">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -50954,6 +51211,9 @@
       <c r="B83" s="5">
         <v>7.92</v>
       </c>
+      <c r="C83" s="9">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -50962,6 +51222,9 @@
       <c r="B84" s="5">
         <v>7.91</v>
       </c>
+      <c r="C84" s="9">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -50970,6 +51233,9 @@
       <c r="B85" s="5">
         <v>7.94</v>
       </c>
+      <c r="C85" s="9">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -50978,6 +51244,9 @@
       <c r="B86" s="5">
         <v>7.91</v>
       </c>
+      <c r="C86" s="9">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -50986,6 +51255,9 @@
       <c r="B87" s="5">
         <v>7.93</v>
       </c>
+      <c r="C87" s="9">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -50994,6 +51266,9 @@
       <c r="B88" s="5">
         <v>7.91</v>
       </c>
+      <c r="C88" s="9">
+        <v>14.8</v>
+      </c>
       <c r="D88"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -51003,6 +51278,9 @@
       <c r="B89" s="5">
         <v>7.94</v>
       </c>
+      <c r="C89" s="9">
+        <v>15</v>
+      </c>
       <c r="D89"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -51012,6 +51290,9 @@
       <c r="B90" s="5">
         <v>7.81</v>
       </c>
+      <c r="C90" s="9">
+        <v>16.600000000000001</v>
+      </c>
       <c r="D90"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -51021,6 +51302,9 @@
       <c r="B91" s="5">
         <v>7.68</v>
       </c>
+      <c r="C91" s="9">
+        <v>18.7</v>
+      </c>
       <c r="D91"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -51030,6 +51314,9 @@
       <c r="B92" s="5">
         <v>7.81</v>
       </c>
+      <c r="C92" s="9">
+        <v>17.399999999999999</v>
+      </c>
       <c r="D92"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -51039,6 +51326,9 @@
       <c r="B93" s="5">
         <v>7.84</v>
       </c>
+      <c r="C93" s="9">
+        <v>16.7</v>
+      </c>
       <c r="D93"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -51048,6 +51338,9 @@
       <c r="B94" s="5">
         <v>7.94</v>
       </c>
+      <c r="C94" s="9">
+        <v>15.3</v>
+      </c>
       <c r="D94"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -51057,6 +51350,9 @@
       <c r="B95" s="5">
         <v>7.83</v>
       </c>
+      <c r="C95" s="9">
+        <v>16.399999999999999</v>
+      </c>
       <c r="D95"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -51066,6 +51362,9 @@
       <c r="B96" s="5">
         <v>7.82</v>
       </c>
+      <c r="C96" s="9">
+        <v>17.899999999999999</v>
+      </c>
       <c r="D96"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -51075,6 +51374,9 @@
       <c r="B97" s="5">
         <v>8.01</v>
       </c>
+      <c r="C97" s="9">
+        <v>18</v>
+      </c>
       <c r="D97"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -51084,6 +51386,9 @@
       <c r="B98" s="5">
         <v>7.8</v>
       </c>
+      <c r="C98" s="9">
+        <v>18.100000000000001</v>
+      </c>
       <c r="D98"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -51093,6 +51398,9 @@
       <c r="B99" s="5">
         <v>7.85</v>
       </c>
+      <c r="C99" s="9">
+        <v>20.8</v>
+      </c>
       <c r="D99"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -51102,6 +51410,9 @@
       <c r="B100" s="5">
         <v>7.86</v>
       </c>
+      <c r="C100" s="9">
+        <v>20.399999999999999</v>
+      </c>
       <c r="D100"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -51111,6 +51422,9 @@
       <c r="B101" s="5">
         <v>7.86</v>
       </c>
+      <c r="C101" s="9">
+        <v>18.5</v>
+      </c>
       <c r="D101"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -51120,6 +51434,9 @@
       <c r="B102" s="5">
         <v>7.92</v>
       </c>
+      <c r="C102" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="D102"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -51129,6 +51446,9 @@
       <c r="B103" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C103" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D103"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -51138,6 +51458,9 @@
       <c r="B104" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C104" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D104"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -51147,6 +51470,9 @@
       <c r="B105" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C105" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D105"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -51156,6 +51482,9 @@
       <c r="B106" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C106" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D106"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -51165,6 +51494,9 @@
       <c r="B107" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C107" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D107"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -51174,6 +51506,9 @@
       <c r="B108" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C108" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D108"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -51183,6 +51518,9 @@
       <c r="B109" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C109" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D109"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -51192,6 +51530,9 @@
       <c r="B110" s="5">
         <v>7.85</v>
       </c>
+      <c r="C110" s="9">
+        <v>18.899999999999999</v>
+      </c>
       <c r="D110"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -51201,6 +51542,9 @@
       <c r="B111" s="5">
         <v>7.81</v>
       </c>
+      <c r="C111" s="9">
+        <v>18.7</v>
+      </c>
       <c r="D111"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -51210,6 +51554,9 @@
       <c r="B112" s="5">
         <v>7.83</v>
       </c>
+      <c r="C112" s="9">
+        <v>19.100000000000001</v>
+      </c>
       <c r="D112"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -51219,6 +51566,9 @@
       <c r="B113" s="5">
         <v>7.85</v>
       </c>
+      <c r="C113" s="9">
+        <v>19.2</v>
+      </c>
       <c r="D113"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -51228,6 +51578,9 @@
       <c r="B114" s="5">
         <v>8.0500000000000007</v>
       </c>
+      <c r="C114" s="9">
+        <v>19.100000000000001</v>
+      </c>
       <c r="D114"/>
       <c r="O114" s="3"/>
     </row>
@@ -51238,6 +51591,9 @@
       <c r="B115" s="5">
         <v>8.0500000000000007</v>
       </c>
+      <c r="C115" s="9">
+        <v>19</v>
+      </c>
       <c r="D115"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -51247,6 +51603,9 @@
       <c r="B116" s="5">
         <v>7.85</v>
       </c>
+      <c r="C116" s="9">
+        <v>18.8</v>
+      </c>
       <c r="D116"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -51256,6 +51615,9 @@
       <c r="B117" s="5">
         <v>7.92</v>
       </c>
+      <c r="C117" s="9">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -51264,6 +51626,9 @@
       <c r="B118" s="5">
         <v>7.76</v>
       </c>
+      <c r="C118" s="9">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -51272,6 +51637,7 @@
       <c r="B119" s="5">
         <v>7.81</v>
       </c>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -51280,6 +51646,9 @@
       <c r="B120" s="5">
         <v>7.82</v>
       </c>
+      <c r="C120" s="9">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
@@ -51288,6 +51657,9 @@
       <c r="B121" s="5">
         <v>7.89</v>
       </c>
+      <c r="C121" s="9">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
@@ -51296,6 +51668,9 @@
       <c r="B122" s="5">
         <v>7.93</v>
       </c>
+      <c r="C122" s="9">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -51304,6 +51679,9 @@
       <c r="B123" s="5">
         <v>7.95</v>
       </c>
+      <c r="C123" s="9">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -51312,6 +51690,9 @@
       <c r="B124" s="5">
         <v>7.67</v>
       </c>
+      <c r="C124" s="9">
+        <v>16.399999999999999</v>
+      </c>
       <c r="D124"/>
       <c r="O124" s="3"/>
     </row>
@@ -51322,6 +51703,9 @@
       <c r="B125" s="5">
         <v>7.72</v>
       </c>
+      <c r="C125" s="9">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -51330,6 +51714,9 @@
       <c r="B126" s="5">
         <v>7.77</v>
       </c>
+      <c r="C126" s="9">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -51338,6 +51725,9 @@
       <c r="B127" s="5">
         <v>7.8</v>
       </c>
+      <c r="C127" s="9">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
@@ -51346,173 +51736,239 @@
       <c r="B128" s="5">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="9">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="5">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B133" s="5">
         <v>7.63</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="9">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B134" s="5">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B135" s="5">
         <v>7.76</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B136" s="5">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B137" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B138" s="5">
         <v>7.94</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B139" s="5">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="9">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B140" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="9">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B141" s="5">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B142" s="5">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B143" s="5">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B144" s="5">
         <v>7.82</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B145" s="5">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B146" s="5">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B147" s="5">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B148" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="9">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B149" s="5">
         <v>7.97</v>
+      </c>
+      <c r="C149" s="9">
+        <v>16.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/wk22_pH.xlsx
+++ b/wk22_pH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwdec\Documents\pH-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1819F67-F627-4FFE-9BEE-28AE91E2B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022D1432-175B-4F8C-A675-96B29A0D3E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
   <si>
     <t>Sample identification number</t>
   </si>
@@ -262,24 +262,6 @@
     <t>WK22-14</t>
   </si>
   <si>
-    <t>WK22-15</t>
-  </si>
-  <si>
-    <t>WK22-16</t>
-  </si>
-  <si>
-    <t>WK22-17</t>
-  </si>
-  <si>
-    <t>WK22-18</t>
-  </si>
-  <si>
-    <t>WK22-19</t>
-  </si>
-  <si>
-    <t>WK22-20</t>
-  </si>
-  <si>
     <t>pH of sample</t>
   </si>
   <si>
@@ -487,27 +469,6 @@
     <t>WK22-84</t>
   </si>
   <si>
-    <t>WK22-85</t>
-  </si>
-  <si>
-    <t>WK22-86</t>
-  </si>
-  <si>
-    <t>WK22-87</t>
-  </si>
-  <si>
-    <t>WK22-88</t>
-  </si>
-  <si>
-    <t>WK22-89</t>
-  </si>
-  <si>
-    <t>WK22-90</t>
-  </si>
-  <si>
-    <t>WK22-91</t>
-  </si>
-  <si>
     <t>WK22-92</t>
   </si>
   <si>
@@ -568,15 +529,6 @@
     <t>WK22-111</t>
   </si>
   <si>
-    <t>WK22-112</t>
-  </si>
-  <si>
-    <t>WK22-113</t>
-  </si>
-  <si>
-    <t>WK22-114</t>
-  </si>
-  <si>
     <t>WK22-115</t>
   </si>
   <si>
@@ -628,16 +580,10 @@
     <t>WK22-132</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>pH_f</t>
   </si>
   <si>
     <t>temp_c</t>
-  </si>
-  <si>
-    <t>15,7</t>
   </si>
 </sst>
 </file>
@@ -1173,18 +1119,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1194,7 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -50273,13 +50219,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:C38"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50295,10 +50241,10 @@
         <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -50313,1668 +50259,1299 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>196</v>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C2" s="9">
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>196</v>
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="C3" s="9">
+        <v>15.6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>196</v>
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.77</v>
+      </c>
+      <c r="C4" s="9">
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>196</v>
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.93</v>
+      </c>
+      <c r="C5" s="9">
+        <v>14.1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>196</v>
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C6" s="9">
+        <v>13.7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>196</v>
+      <c r="A7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="C7" s="9">
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>196</v>
+      <c r="A8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14.6</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>15.7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>196</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>196</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C11" s="9">
+        <v>14.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>196</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.87</v>
+      </c>
+      <c r="C12" s="9">
+        <v>15.2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="C13" s="9">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>196</v>
+        <v>72</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7.87</v>
+      </c>
+      <c r="C14" s="9">
+        <v>15.8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>196</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7.87</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>196</v>
+        <v>77</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.77</v>
+      </c>
+      <c r="C16" s="9">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>196</v>
+        <v>78</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15.4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>79</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5">
-        <v>7.81</v>
+        <v>7.97</v>
       </c>
       <c r="C19" s="9">
-        <v>18.100000000000001</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="C20" s="9">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5">
-        <v>7.77</v>
+        <v>7.81</v>
       </c>
       <c r="C21" s="9">
-        <v>16.600000000000001</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5">
-        <v>7.93</v>
+        <v>7.87</v>
       </c>
       <c r="C22" s="9">
-        <v>14.1</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5">
-        <v>7.94</v>
+        <v>7.88</v>
       </c>
       <c r="C23" s="9">
-        <v>13.7</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5">
-        <v>7.72</v>
+        <v>7.93</v>
       </c>
       <c r="C24" s="9">
-        <v>16.399999999999999</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5">
-        <v>7.84</v>
+        <v>7.85</v>
       </c>
       <c r="C25" s="9">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5">
-        <v>7.8</v>
+        <v>7.88</v>
       </c>
       <c r="C26" s="9">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="C27" s="9">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B28" s="5">
-        <v>7.81</v>
+        <v>7.85</v>
       </c>
       <c r="C28" s="9">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B29" s="5">
-        <v>7.87</v>
+        <v>7.81</v>
       </c>
       <c r="C29" s="9">
-        <v>15.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B30" s="5">
-        <v>7.88</v>
+        <v>7.79</v>
       </c>
       <c r="C30" s="9">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5">
-        <v>7.87</v>
+        <v>7.78</v>
       </c>
       <c r="C31" s="9">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>73</v>
+      <c r="A32" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B32" s="5">
-        <v>7.87</v>
+        <v>7.74</v>
       </c>
       <c r="C32" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>83</v>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C33" s="9">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7.74</v>
+      </c>
+      <c r="C34" s="9">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C35" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C36" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C37" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C38" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B39" s="5">
-        <v>7.77</v>
+        <v>7.84</v>
       </c>
       <c r="C39" s="9">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>84</v>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B40" s="5">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="C40" s="9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="C41" s="9">
         <v>15.4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C42" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C43" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="C44" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="5">
         <v>7.85</v>
       </c>
-      <c r="C41" s="9">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="5">
-        <v>7.97</v>
-      </c>
-      <c r="C42" s="9">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="5">
-        <v>7.78</v>
-      </c>
-      <c r="C43" s="9">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="C45" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C46" s="9">
         <v>15.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="5">
-        <v>7.87</v>
-      </c>
-      <c r="C45" s="9">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="5">
-        <v>7.88</v>
-      </c>
-      <c r="C46" s="9">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>91</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B47" s="5">
-        <v>7.93</v>
+        <v>7.83</v>
       </c>
       <c r="C47" s="9">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>92</v>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B48" s="5">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="C48" s="9">
-        <v>14.4</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>93</v>
+      <c r="A49" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B49" s="5">
-        <v>7.88</v>
+        <v>7.15</v>
       </c>
       <c r="C49" s="9">
-        <v>13.7</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>94</v>
+      <c r="A50" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B50" s="5">
         <v>7.9</v>
       </c>
       <c r="C50" s="9">
-        <v>14</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>97</v>
+      <c r="A51" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B51" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="C51" s="9">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="C52" s="9">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="5">
         <v>7.85</v>
       </c>
-      <c r="C51" s="9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C52" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="5">
-        <v>7.79</v>
-      </c>
       <c r="C53" s="9">
-        <v>14.5</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>100</v>
+      <c r="A54" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B54" s="5">
-        <v>7.78</v>
+        <v>7.82</v>
       </c>
       <c r="C54" s="9">
-        <v>14.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B55" s="5">
-        <v>7.74</v>
+        <v>7.93</v>
       </c>
       <c r="C55" s="9">
-        <v>18.899999999999999</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B56" s="5">
-        <v>7.81</v>
+        <v>7.96</v>
       </c>
       <c r="C56" s="9">
-        <v>18.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B57" s="5">
-        <v>7.74</v>
+        <v>7.95</v>
       </c>
       <c r="C57" s="9">
-        <v>18.8</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B58" s="5">
-        <v>7.85</v>
+        <v>7.94</v>
       </c>
       <c r="C58" s="9">
-        <v>19</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B59" s="5">
-        <v>7.83</v>
+        <v>7.89</v>
       </c>
       <c r="C59" s="9">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B60" s="5">
-        <v>7.83</v>
+        <v>7.92</v>
       </c>
       <c r="C60" s="9">
-        <v>16</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B61" s="5">
-        <v>7.83</v>
+        <v>7.91</v>
       </c>
       <c r="C61" s="9">
-        <v>16.399999999999999</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B62" s="5">
-        <v>7.84</v>
+        <v>7.94</v>
       </c>
       <c r="C62" s="9">
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B63" s="5">
-        <v>7.8</v>
+        <v>7.91</v>
       </c>
       <c r="C63" s="9">
-        <v>16.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B64" s="5">
-        <v>7.72</v>
+        <v>7.93</v>
       </c>
       <c r="C64" s="9">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B65" s="5">
+        <v>7.91</v>
+      </c>
+      <c r="C65" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C66" s="9">
+        <v>15</v>
+      </c>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="5">
         <v>7.81</v>
       </c>
-      <c r="C65" s="9">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="C67" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="C68" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C69" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="C70" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C71" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="5">
         <v>7.83</v>
       </c>
-      <c r="C66" s="9">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="5">
-        <v>7.84</v>
-      </c>
-      <c r="C67" s="9">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C68" s="9">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C69" s="9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C70" s="9">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C71" s="9">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="5">
-        <v>7.15</v>
-      </c>
       <c r="C72" s="9">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B73" s="5">
-        <v>7.9</v>
+        <v>7.82</v>
       </c>
       <c r="C73" s="9">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B74" s="5">
-        <v>7.88</v>
+        <v>8.01</v>
       </c>
       <c r="C74" s="9">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B75" s="5">
-        <v>7.86</v>
+        <v>7.8</v>
       </c>
       <c r="C75" s="9">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B76" s="5">
         <v>7.85</v>
       </c>
       <c r="C76" s="9">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20.8</v>
+      </c>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B77" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="C77" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="C78" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="C79" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C80" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C81" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C82" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C83" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C84" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D84"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C85" s="9">
+        <v>19</v>
+      </c>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C86" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="C87" s="9">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="C88" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="C89" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="5">
         <v>7.82</v>
       </c>
-      <c r="C77" s="9">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="5">
+      <c r="C90" s="9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="C91" s="9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="5">
         <v>7.93</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C92" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="C93" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="5">
+        <v>7.67</v>
+      </c>
+      <c r="C94" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D94"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="5">
+        <v>7.72</v>
+      </c>
+      <c r="C95" s="9">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="5">
+        <v>7.77</v>
+      </c>
+      <c r="C96" s="9">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="C97" s="9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="C98" s="9">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="5">
+        <v>7.93</v>
+      </c>
+      <c r="C99" s="9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="5">
+        <v>7.63</v>
+      </c>
+      <c r="C100" s="9">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="C101" s="9">
         <v>15.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="5">
-        <v>7.96</v>
-      </c>
-      <c r="C79" s="9">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="C102" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="C103" s="9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="C104" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C105" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="C106" s="9">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="C107" s="9">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="C108" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="5">
+        <v>7.85</v>
+      </c>
+      <c r="C109" s="9">
         <v>15.4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="5">
-        <v>7.95</v>
-      </c>
-      <c r="C80" s="9">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="5">
-        <v>7.94</v>
-      </c>
-      <c r="C81" s="9">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="C110" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="C111" s="9">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="5">
+        <v>7.87</v>
+      </c>
+      <c r="C112" s="9">
         <v>15.3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="5">
-        <v>7.89</v>
-      </c>
-      <c r="C82" s="9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="5">
-        <v>7.92</v>
-      </c>
-      <c r="C83" s="9">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="5">
-        <v>7.91</v>
-      </c>
-      <c r="C84" s="9">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="5">
-        <v>7.94</v>
-      </c>
-      <c r="C85" s="9">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="5">
-        <v>7.91</v>
-      </c>
-      <c r="C86" s="9">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="5">
-        <v>7.93</v>
-      </c>
-      <c r="C87" s="9">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="5">
-        <v>7.91</v>
-      </c>
-      <c r="C88" s="9">
-        <v>14.8</v>
-      </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89" s="5">
-        <v>7.94</v>
-      </c>
-      <c r="C89" s="9">
-        <v>15</v>
-      </c>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C90" s="9">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="5">
-        <v>7.68</v>
-      </c>
-      <c r="C91" s="9">
-        <v>18.7</v>
-      </c>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C92" s="9">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" s="5">
-        <v>7.84</v>
-      </c>
-      <c r="C93" s="9">
-        <v>16.7</v>
-      </c>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="5">
-        <v>7.94</v>
-      </c>
-      <c r="C94" s="9">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="5">
+        <v>7.97</v>
+      </c>
+      <c r="C113" s="9">
         <v>15.3</v>
       </c>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C95" s="9">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="5">
+        <v>7.98</v>
+      </c>
+      <c r="C114" s="9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="C115" s="9">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" s="5">
+        <v>7.97</v>
+      </c>
+      <c r="C116" s="9">
         <v>16.399999999999999</v>
       </c>
-      <c r="D95"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="5">
-        <v>7.82</v>
-      </c>
-      <c r="C96" s="9">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D96"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="5">
-        <v>8.01</v>
-      </c>
-      <c r="C97" s="9">
-        <v>18</v>
-      </c>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="C98" s="9">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B99" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C99" s="9">
-        <v>20.8</v>
-      </c>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" s="5">
-        <v>7.86</v>
-      </c>
-      <c r="C100" s="9">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B101" s="5">
-        <v>7.86</v>
-      </c>
-      <c r="C101" s="9">
-        <v>18.5</v>
-      </c>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="5">
-        <v>7.92</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B110" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C110" s="9">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B111" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C111" s="9">
-        <v>18.7</v>
-      </c>
-      <c r="D111"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B112" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C112" s="9">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C113" s="9">
-        <v>19.2</v>
-      </c>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="5">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="C114" s="9">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D114"/>
-      <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" s="5">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="C115" s="9">
-        <v>19</v>
-      </c>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C116" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B117" s="5">
-        <v>7.92</v>
-      </c>
-      <c r="C117" s="9">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B118" s="5">
-        <v>7.76</v>
-      </c>
-      <c r="C118" s="9">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B119" s="5">
-        <v>7.81</v>
-      </c>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" s="5">
-        <v>7.82</v>
-      </c>
-      <c r="C120" s="9">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="5">
-        <v>7.89</v>
-      </c>
-      <c r="C121" s="9">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B122" s="5">
-        <v>7.93</v>
-      </c>
-      <c r="C122" s="9">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" s="5">
-        <v>7.95</v>
-      </c>
-      <c r="C123" s="9">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="5">
-        <v>7.67</v>
-      </c>
-      <c r="C124" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D124"/>
-      <c r="O124" s="3"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B125" s="5">
-        <v>7.72</v>
-      </c>
-      <c r="C125" s="9">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B126" s="5">
-        <v>7.77</v>
-      </c>
-      <c r="C126" s="9">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="C127" s="9">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B128" s="5">
-        <v>7.89</v>
-      </c>
-      <c r="C128" s="9">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B129" s="5">
-        <v>7.93</v>
-      </c>
-      <c r="C129" s="9">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B133" s="5">
-        <v>7.63</v>
-      </c>
-      <c r="C133" s="9">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B134" s="5">
-        <v>7.68</v>
-      </c>
-      <c r="C134" s="9">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B135" s="5">
-        <v>7.76</v>
-      </c>
-      <c r="C135" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B136" s="5">
-        <v>7.83</v>
-      </c>
-      <c r="C136" s="9">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B137" s="5">
-        <v>7.88</v>
-      </c>
-      <c r="C137" s="9">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B138" s="5">
-        <v>7.94</v>
-      </c>
-      <c r="C138" s="9">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B139" s="5">
-        <v>7.86</v>
-      </c>
-      <c r="C139" s="9">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B140" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="C140" s="9">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B141" s="5">
-        <v>7.95</v>
-      </c>
-      <c r="C141" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B142" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="C142" s="9">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B143" s="5">
-        <v>7.88</v>
-      </c>
-      <c r="C143" s="9">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B144" s="5">
-        <v>7.82</v>
-      </c>
-      <c r="C144" s="9">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B145" s="5">
-        <v>7.87</v>
-      </c>
-      <c r="C145" s="9">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B146" s="5">
-        <v>7.97</v>
-      </c>
-      <c r="C146" s="9">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B147" s="5">
-        <v>7.98</v>
-      </c>
-      <c r="C147" s="9">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B148" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="C148" s="9">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B149" s="5">
-        <v>7.97</v>
-      </c>
-      <c r="C149" s="9">
-        <v>16.399999999999999</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D89:N115">
-    <sortCondition ref="D89:D115"/>
-    <sortCondition ref="N89:N115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D66:N85">
+    <sortCondition ref="D66:D85"/>
+    <sortCondition ref="N66:N85"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
